--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7044,6 +7044,147 @@
       <c r="E319" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>335.3971428571429</v>
+      </c>
+      <c r="C320" t="n">
+        <v>329.9822222222222</v>
+      </c>
+      <c r="D320" t="n">
+        <v>337.7122222222222</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>343.5714285714286</v>
+      </c>
+      <c r="C321" t="n">
+        <v>339.0744444444445</v>
+      </c>
+      <c r="D321" t="n">
+        <v>345.2244444444444</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="n">
+        <v>316.3788888888889</v>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="n">
+        <v>331.7877777777778</v>
+      </c>
+      <c r="D323" t="n">
+        <v>338.8577777777778</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>339.0357142857143</v>
+      </c>
+      <c r="C324" t="n">
+        <v>338.5988888888889</v>
+      </c>
+      <c r="D324" t="n">
+        <v>345.1588888888889</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>327.3785714285714</v>
+      </c>
+      <c r="C325" t="n">
+        <v>331.7844444444444</v>
+      </c>
+      <c r="D325" t="n">
+        <v>337.5344444444444</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>332.1628571428571</v>
+      </c>
+      <c r="C326" t="n">
+        <v>328.5511111111111</v>
+      </c>
+      <c r="D326" t="n">
+        <v>330.5011111111111</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10656,6 +10797,76 @@
       </c>
       <c r="B359" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -10824,28 +11035,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0193019699909704</v>
+        <v>-0.007108536399636799</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002250690704321823</v>
+        <v>3.098857232941565e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.714888013217092</v>
+        <v>6.731524169454307</v>
       </c>
       <c r="N2" t="n">
-        <v>84.8880451460148</v>
+        <v>85.07827345910583</v>
       </c>
       <c r="O2" t="n">
-        <v>9.213470852290943</v>
+        <v>9.223788454811061</v>
       </c>
       <c r="P2" t="n">
-        <v>343.3284736164084</v>
+        <v>343.5919496161015</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10901,28 +11112,28 @@
         <v>0.1051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1244987296230458</v>
+        <v>-0.1443583667758002</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009769131397222131</v>
+        <v>0.01343138103360175</v>
       </c>
       <c r="M3" t="n">
-        <v>6.424045412246661</v>
+        <v>6.431719917538059</v>
       </c>
       <c r="N3" t="n">
-        <v>79.37615203809939</v>
+        <v>79.14434597346488</v>
       </c>
       <c r="O3" t="n">
-        <v>8.909329494305359</v>
+        <v>8.896310806928053</v>
       </c>
       <c r="P3" t="n">
-        <v>338.6154691057137</v>
+        <v>338.8154427356876</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -10978,28 +11189,28 @@
         <v>0.1161</v>
       </c>
       <c r="I4" t="n">
-        <v>0.044951791990092</v>
+        <v>0.05459983905953057</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006846299994793803</v>
+        <v>0.001050135725157109</v>
       </c>
       <c r="M4" t="n">
-        <v>9.089324714434003</v>
+        <v>8.994350112797402</v>
       </c>
       <c r="N4" t="n">
-        <v>148.2314342416591</v>
+        <v>145.9005841113237</v>
       </c>
       <c r="O4" t="n">
-        <v>12.17503323369834</v>
+        <v>12.07893141429836</v>
       </c>
       <c r="P4" t="n">
-        <v>335.6138525626095</v>
+        <v>335.5182107911178</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11036,7 +11247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19469,6 +19680,183 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-36.75772241054609,175.7574313058709</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-36.75782434288085,175.7564943626569</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-36.758216477745336,175.75569853909303</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-36.75779432635667,175.757450962544</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-36.75790132081221,175.7565291291504</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-36.75827643079831,175.7557375431475</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-36.757709172280016,175.7564423468862</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-36.7578396293464,175.75650126666565</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-36.758225620121394,175.7557044869044</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-36.75775442200597,175.75744005552443</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-36.75789729459299,175.75652731073734</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-36.75827590761687,175.75573720277757</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-36.75765186467477,175.7574120236831</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-36.757839601125234,175.7565012539198</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-36.75821505894786,175.75569761605746</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-36.757693955914164,175.75742352840794</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-36.75781222659269,175.75648889043535</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-36.75815892776534,175.75566109849063</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -10880,7 +10880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10971,35 +10971,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -11058,27 +11063,28 @@
       <c r="P2" t="n">
         <v>343.5919496161015</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.75662481290536 -36.754771645503666, 175.75883612739224 -36.76286169338471)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7566248129054</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.75477164550367</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7588361273922</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.76286169338471</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.7577304701488</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.75881666944419</v>
       </c>
     </row>
@@ -11135,27 +11141,28 @@
       <c r="P3" t="n">
         <v>338.8154427356876</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.75523263918097 -36.75503058860674, 175.758749254431 -36.762816624371915)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.755232639181</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.75503058860674</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.758749254431</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.76281662437191</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.756990946806</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.75892360648933</v>
       </c>
     </row>
@@ -11212,27 +11219,28 @@
       <c r="P4" t="n">
         <v>335.5182107911178</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.7539451754642 -36.755521269683854, 175.75872086466063 -36.7628617543378)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7539451754642</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.75552126968385</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7587208646606</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.7628617543378</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7563330200624</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.75919151201083</v>
       </c>
     </row>

--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7185,6 +7185,90 @@
       <c r="E326" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>344.9342857142857</v>
+      </c>
+      <c r="C327" t="n">
+        <v>336.4388888888889</v>
+      </c>
+      <c r="D327" t="n">
+        <v>336.6388888888889</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>340.2685714285714</v>
+      </c>
+      <c r="C328" t="n">
+        <v>336.6155555555555</v>
+      </c>
+      <c r="D328" t="n">
+        <v>333.7255555555556</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>332.7085714285714</v>
+      </c>
+      <c r="C329" t="n">
+        <v>342.7244444444444</v>
+      </c>
+      <c r="D329" t="n">
+        <v>343.0544444444445</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>333.9114285714285</v>
+      </c>
+      <c r="C330" t="n">
+        <v>332.19</v>
+      </c>
+      <c r="D330" t="n">
+        <v>336.72</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7199,7 +7283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10867,6 +10951,46 @@
       </c>
       <c r="B366" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -11040,28 +11164,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007108536399636799</v>
+        <v>-0.02078619736068349</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>3.098857232941565e-05</v>
+        <v>0.0002697967901131859</v>
       </c>
       <c r="M2" t="n">
-        <v>6.731524169454307</v>
+        <v>6.721546295186215</v>
       </c>
       <c r="N2" t="n">
-        <v>85.07827345910583</v>
+        <v>84.66808467193893</v>
       </c>
       <c r="O2" t="n">
-        <v>9.223788454811061</v>
+        <v>9.201526214272224</v>
       </c>
       <c r="P2" t="n">
-        <v>343.5919496161015</v>
+        <v>343.7301362608079</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11118,28 +11242,28 @@
         <v>0.1051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1443583667758002</v>
+        <v>-0.1398348177238009</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01343138103360175</v>
+        <v>0.01289846479945023</v>
       </c>
       <c r="M3" t="n">
-        <v>6.431719917538059</v>
+        <v>6.391063970603113</v>
       </c>
       <c r="N3" t="n">
-        <v>79.14434597346488</v>
+        <v>78.3702662054899</v>
       </c>
       <c r="O3" t="n">
-        <v>8.896310806928053</v>
+        <v>8.852698244348437</v>
       </c>
       <c r="P3" t="n">
-        <v>338.8154427356876</v>
+        <v>338.7693981504146</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11196,28 +11320,28 @@
         <v>0.1161</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05459983905953057</v>
+        <v>0.05625078149058682</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001050135725157109</v>
+        <v>0.001145224396330469</v>
       </c>
       <c r="M4" t="n">
-        <v>8.994350112797402</v>
+        <v>8.908333419327517</v>
       </c>
       <c r="N4" t="n">
-        <v>145.9005841113237</v>
+        <v>144.1499554936422</v>
       </c>
       <c r="O4" t="n">
-        <v>12.07893141429836</v>
+        <v>12.00624651977637</v>
       </c>
       <c r="P4" t="n">
-        <v>335.5182107911178</v>
+        <v>335.5015583251939</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11255,7 +11379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19865,6 +19989,114 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-36.75780631651399,175.75745423980524</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-36.75787900727911,175.75651905140572</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-36.758207911755406,175.75569296626625</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-36.75776526844855,175.75744302017134</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-36.757880503000784,175.7565197269373</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-36.75818466120967,175.75567784002862</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-36.75769875700494,175.7574248406826</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-36.757932222984074,175.7565430859024</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-36.75825911260552,175.75572627632866</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-36.75770933951385,175.75742773318396</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-36.75784303470051,175.75650280466678</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-36.75820855908179,175.75569338740115</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7267,6 +7267,48 @@
         <v>336.72</v>
       </c>
       <c r="E330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>320.8114285714286</v>
+      </c>
+      <c r="C331" t="n">
+        <v>343.0922222222222</v>
+      </c>
+      <c r="D331" t="n">
+        <v>348.6522222222222</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>343.0742857142857</v>
+      </c>
+      <c r="C332" t="n">
+        <v>335.8477777777778</v>
+      </c>
+      <c r="D332" t="n">
+        <v>354.9977777777778</v>
+      </c>
+      <c r="E332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7283,7 +7325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10991,6 +11033,26 @@
       </c>
       <c r="B370" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -11164,28 +11226,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02078619736068349</v>
+        <v>-0.03479892249159814</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002697967901131859</v>
+        <v>0.0007516949411716656</v>
       </c>
       <c r="M2" t="n">
-        <v>6.721546295186215</v>
+        <v>6.746370363989918</v>
       </c>
       <c r="N2" t="n">
-        <v>84.66808467193893</v>
+        <v>85.7090276092899</v>
       </c>
       <c r="O2" t="n">
-        <v>9.201526214272224</v>
+        <v>9.257917023245019</v>
       </c>
       <c r="P2" t="n">
-        <v>343.7301362608079</v>
+        <v>343.8726164794003</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11242,28 +11304,28 @@
         <v>0.1051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1398348177238009</v>
+        <v>-0.134608280773501</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01289846479945023</v>
+        <v>0.01208498301348448</v>
       </c>
       <c r="M3" t="n">
-        <v>6.391063970603113</v>
+        <v>6.375597616899685</v>
       </c>
       <c r="N3" t="n">
-        <v>78.3702662054899</v>
+        <v>78.07642286921629</v>
       </c>
       <c r="O3" t="n">
-        <v>8.852698244348437</v>
+        <v>8.836086400053832</v>
       </c>
       <c r="P3" t="n">
-        <v>338.7693981504146</v>
+        <v>338.7156780960784</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11320,28 +11382,28 @@
         <v>0.1161</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05625078149058682</v>
+        <v>0.07572991420551792</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001145224396330469</v>
+        <v>0.002081754834429961</v>
       </c>
       <c r="M4" t="n">
-        <v>8.908333419327517</v>
+        <v>8.942320457985144</v>
       </c>
       <c r="N4" t="n">
-        <v>144.1499554936422</v>
+        <v>144.6872538351087</v>
       </c>
       <c r="O4" t="n">
-        <v>12.00624651977637</v>
+        <v>12.02860149124198</v>
       </c>
       <c r="P4" t="n">
-        <v>335.5015583251939</v>
+        <v>335.3041572448196</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11379,7 +11441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20097,6 +20159,60 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-36.7575940881929,175.75739623176204</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-36.75793533671878,175.75654449219982</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-36.75830378697829,175.7557553404629</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-36.75778995258855,175.75744976706534</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-36.757874002725984,175.75651679113668</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-36.75835442915556,175.7557882871647</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,6 +7309,27 @@
         <v>354.9977777777778</v>
       </c>
       <c r="E332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>339.9328571428572</v>
+      </c>
+      <c r="C333" t="n">
+        <v>334.8977777777778</v>
+      </c>
+      <c r="D333" t="n">
+        <v>338.3277777777778</v>
+      </c>
+      <c r="E333" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7325,7 +7346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11053,6 +11074,16 @@
       </c>
       <c r="B372" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -11226,28 +11257,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03479892249159814</v>
+        <v>-0.03668735172567781</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007516949411716656</v>
+        <v>0.0008405974201294297</v>
       </c>
       <c r="M2" t="n">
-        <v>6.746370363989918</v>
+        <v>6.734077598109069</v>
       </c>
       <c r="N2" t="n">
-        <v>85.7090276092899</v>
+        <v>85.46605604596684</v>
       </c>
       <c r="O2" t="n">
-        <v>9.257917023245019</v>
+        <v>9.244785343422899</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8726164794003</v>
+        <v>343.8918783543637</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11304,28 +11335,28 @@
         <v>0.1051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.134608280773501</v>
+        <v>-0.1348209885654017</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01208498301348448</v>
+        <v>0.01219840237780578</v>
       </c>
       <c r="M3" t="n">
-        <v>6.375597616899685</v>
+        <v>6.356973324195846</v>
       </c>
       <c r="N3" t="n">
-        <v>78.07642286921629</v>
+        <v>77.83432788683632</v>
       </c>
       <c r="O3" t="n">
-        <v>8.836086400053832</v>
+        <v>8.822376544153867</v>
       </c>
       <c r="P3" t="n">
-        <v>338.7156780960784</v>
+        <v>338.7178711029281</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11382,28 +11413,28 @@
         <v>0.1161</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07572991420551792</v>
+        <v>0.07642864240876253</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002081754834429961</v>
+        <v>0.002135006109908688</v>
       </c>
       <c r="M4" t="n">
-        <v>8.942320457985144</v>
+        <v>8.91668919486667</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6872538351087</v>
+        <v>144.2226983753405</v>
       </c>
       <c r="O4" t="n">
-        <v>12.02860149124198</v>
+        <v>12.00927551417405</v>
       </c>
       <c r="P4" t="n">
-        <v>335.3041572448196</v>
+        <v>335.2970593145089</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11441,7 +11472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20213,6 +20244,33 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-36.75776231489815,175.75744221288036</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-36.75786595969406,175.7565131585621</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-36.75822139033154,175.755701735104</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7332,6 +7332,69 @@
       <c r="E333" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>333.7757142857143</v>
+      </c>
+      <c r="C334" t="n">
+        <v>333.5688888888889</v>
+      </c>
+      <c r="D334" t="n">
+        <v>338.1088888888889</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>343.3228571428572</v>
+      </c>
+      <c r="C335" t="n">
+        <v>335.5644444444445</v>
+      </c>
+      <c r="D335" t="n">
+        <v>335.1144444444445</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>342.6871428571428</v>
+      </c>
+      <c r="C336" t="n">
+        <v>335.1566666666667</v>
+      </c>
+      <c r="D336" t="n">
+        <v>346.6866666666667</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11084,6 +11147,36 @@
       </c>
       <c r="B373" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -11257,28 +11350,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03668735172567781</v>
+        <v>-0.04219366582063885</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008405974201294297</v>
+        <v>0.00112997691698502</v>
       </c>
       <c r="M2" t="n">
-        <v>6.734077598109069</v>
+        <v>6.699604397541902</v>
       </c>
       <c r="N2" t="n">
-        <v>85.46605604596684</v>
+        <v>84.92225421621505</v>
       </c>
       <c r="O2" t="n">
-        <v>9.244785343422899</v>
+        <v>9.215327135604849</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8918783543637</v>
+        <v>343.9483339994174</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11335,28 +11428,28 @@
         <v>0.1051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1348209885654017</v>
+        <v>-0.1356504878251681</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01219840237780578</v>
+        <v>0.01257849181328441</v>
       </c>
       <c r="M3" t="n">
-        <v>6.356973324195846</v>
+        <v>6.304941426720229</v>
       </c>
       <c r="N3" t="n">
-        <v>77.83432788683632</v>
+        <v>77.12466011804867</v>
       </c>
       <c r="O3" t="n">
-        <v>8.822376544153867</v>
+        <v>8.782064684232784</v>
       </c>
       <c r="P3" t="n">
-        <v>338.7178711029281</v>
+        <v>338.7264662022868</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11413,28 +11506,28 @@
         <v>0.1161</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07642864240876253</v>
+        <v>0.08160830333572042</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002135006109908688</v>
+        <v>0.002479458038150195</v>
       </c>
       <c r="M4" t="n">
-        <v>8.91668919486667</v>
+        <v>8.869298412356725</v>
       </c>
       <c r="N4" t="n">
-        <v>144.2226983753405</v>
+        <v>143.1348063146067</v>
       </c>
       <c r="O4" t="n">
-        <v>12.00927551417405</v>
+        <v>11.96389595050904</v>
       </c>
       <c r="P4" t="n">
-        <v>335.2970593145089</v>
+        <v>335.244071633571</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11472,7 +11565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20271,6 +20364,87 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-36.75770814552533,175.7574274068328</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-36.757854708856186,175.75650807720766</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-36.75821964343718,175.7557005986163</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-36.757792139472606,175.75745036480464</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-36.75787160392701,175.75651570773715</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-36.75819574556624,175.75568505123914</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-36.75778654657945,175.7574488361036</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-36.75786815153787,175.7565141484917</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-36.75828810040418,175.75574513512873</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -11341,13 +11341,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0636</v>
+        <v>0.0472</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.0421784263495233</v>
@@ -11419,13 +11419,13 @@
         <v>0.5030454960761165</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07820000000000001</v>
+        <v>0.054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1051</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1356833109253749</v>
@@ -11497,13 +11497,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.0842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1161</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.08157630974896932</v>

--- a/data/nzd0164/nzd0164.xlsx
+++ b/data/nzd0164/nzd0164.xlsx
@@ -473,10 +473,10 @@
         <v>337.43</v>
       </c>
       <c r="C2" t="n">
-        <v>340.16</v>
+        <v>339.9</v>
       </c>
       <c r="D2" t="n">
-        <v>341.11</v>
+        <v>340.98</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -494,10 +494,10 @@
         <v>346.11</v>
       </c>
       <c r="C3" t="n">
-        <v>340.08</v>
+        <v>339.73</v>
       </c>
       <c r="D3" t="n">
-        <v>348.44</v>
+        <v>348.26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -515,10 +515,10 @@
         <v>349.89</v>
       </c>
       <c r="C4" t="n">
-        <v>343.98</v>
+        <v>344.26</v>
       </c>
       <c r="D4" t="n">
-        <v>348.75</v>
+        <v>348.89</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -536,10 +536,10 @@
         <v>346.31</v>
       </c>
       <c r="C5" t="n">
-        <v>343.7</v>
+        <v>343.52</v>
       </c>
       <c r="D5" t="n">
-        <v>347.89</v>
+        <v>347.8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -557,10 +557,10 @@
         <v>346.36</v>
       </c>
       <c r="C6" t="n">
-        <v>342.26</v>
+        <v>342.03</v>
       </c>
       <c r="D6" t="n">
-        <v>338.21</v>
+        <v>338.09</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         <v>347.32</v>
       </c>
       <c r="C7" t="n">
-        <v>346.95</v>
+        <v>346.61</v>
       </c>
       <c r="D7" t="n">
-        <v>351.02</v>
+        <v>350.85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -599,10 +599,10 @@
         <v>329</v>
       </c>
       <c r="C8" t="n">
-        <v>321.67</v>
+        <v>321.94</v>
       </c>
       <c r="D8" t="n">
-        <v>305.31</v>
+        <v>305.45</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -620,10 +620,10 @@
         <v>329.91</v>
       </c>
       <c r="C9" t="n">
-        <v>315.54</v>
+        <v>315.34</v>
       </c>
       <c r="D9" t="n">
-        <v>296.87</v>
+        <v>296.77</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -641,10 +641,10 @@
         <v>349.5</v>
       </c>
       <c r="C10" t="n">
-        <v>330.49</v>
+        <v>330.11</v>
       </c>
       <c r="D10" t="n">
-        <v>326.69</v>
+        <v>326.49</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -662,10 +662,10 @@
         <v>333.62</v>
       </c>
       <c r="C11" t="n">
-        <v>320.77</v>
+        <v>321.34</v>
       </c>
       <c r="D11" t="n">
-        <v>318.97</v>
+        <v>319.26</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -683,10 +683,10 @@
         <v>346.03</v>
       </c>
       <c r="C12" t="n">
-        <v>341.98</v>
+        <v>341.87</v>
       </c>
       <c r="D12" t="n">
-        <v>344.54</v>
+        <v>344.49</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -704,10 +704,10 @@
         <v>347.96</v>
       </c>
       <c r="C13" t="n">
-        <v>343.05</v>
+        <v>343</v>
       </c>
       <c r="D13" t="n">
-        <v>350.6</v>
+        <v>350.57</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
         <v>345.63</v>
       </c>
       <c r="C14" t="n">
-        <v>339.08</v>
+        <v>338.89</v>
       </c>
       <c r="D14" t="n">
-        <v>338.23</v>
+        <v>338.13</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -746,10 +746,10 @@
         <v>350.1</v>
       </c>
       <c r="C15" t="n">
-        <v>340.8</v>
+        <v>341.18</v>
       </c>
       <c r="D15" t="n">
-        <v>347.46</v>
+        <v>347.66</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -767,10 +767,10 @@
         <v>346.38</v>
       </c>
       <c r="C16" t="n">
-        <v>327.86</v>
+        <v>328.43</v>
       </c>
       <c r="D16" t="n">
-        <v>333.64</v>
+        <v>333.93</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -788,10 +788,10 @@
         <v>334.38</v>
       </c>
       <c r="C17" t="n">
-        <v>328.74</v>
+        <v>329.06</v>
       </c>
       <c r="D17" t="n">
-        <v>298.11</v>
+        <v>298.27</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -809,10 +809,10 @@
         <v>353.79</v>
       </c>
       <c r="C18" t="n">
-        <v>336.98</v>
+        <v>336.82</v>
       </c>
       <c r="D18" t="n">
-        <v>328.92</v>
+        <v>328.83</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -830,10 +830,10 @@
         <v>345.46</v>
       </c>
       <c r="C19" t="n">
-        <v>334.97</v>
+        <v>334.69</v>
       </c>
       <c r="D19" t="n">
-        <v>328.04</v>
+        <v>327.9</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -851,10 +851,10 @@
         <v>345.12</v>
       </c>
       <c r="C20" t="n">
-        <v>338.76</v>
+        <v>338.91</v>
       </c>
       <c r="D20" t="n">
-        <v>324.35</v>
+        <v>324.43</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -872,10 +872,10 @@
         <v>339.03</v>
       </c>
       <c r="C21" t="n">
-        <v>329.75</v>
+        <v>330.07</v>
       </c>
       <c r="D21" t="n">
-        <v>318.96</v>
+        <v>319.11</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -893,10 +893,10 @@
         <v>337.65</v>
       </c>
       <c r="C22" t="n">
-        <v>335.63</v>
+        <v>335.29</v>
       </c>
       <c r="D22" t="n">
-        <v>341.51</v>
+        <v>341.34</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         <v>338.93</v>
       </c>
       <c r="C23" t="n">
-        <v>339.45</v>
+        <v>339.34</v>
       </c>
       <c r="D23" t="n">
-        <v>339.66</v>
+        <v>339.6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -935,10 +935,10 @@
         <v>342</v>
       </c>
       <c r="C24" t="n">
-        <v>339.65</v>
+        <v>339.4</v>
       </c>
       <c r="D24" t="n">
-        <v>335.62</v>
+        <v>335.5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>352.4</v>
       </c>
       <c r="C25" t="n">
-        <v>338.83</v>
+        <v>338.97</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -975,10 +975,10 @@
         <v>332.55</v>
       </c>
       <c r="C26" t="n">
-        <v>331.62</v>
+        <v>331.67</v>
       </c>
       <c r="D26" t="n">
-        <v>322.47</v>
+        <v>322.5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -996,10 +996,10 @@
         <v>344.76</v>
       </c>
       <c r="C27" t="n">
-        <v>338.03</v>
+        <v>337.85</v>
       </c>
       <c r="D27" t="n">
-        <v>336.76</v>
+        <v>336.67</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1017,10 +1017,10 @@
         <v>343.71</v>
       </c>
       <c r="C28" t="n">
-        <v>334.71</v>
+        <v>334.44</v>
       </c>
       <c r="D28" t="n">
-        <v>337.74</v>
+        <v>337.6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1038,10 +1038,10 @@
         <v>347.03</v>
       </c>
       <c r="C29" t="n">
-        <v>341.62</v>
+        <v>341.53</v>
       </c>
       <c r="D29" t="n">
-        <v>338.93</v>
+        <v>338.89</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         <v>334.9</v>
       </c>
       <c r="C30" t="n">
-        <v>338.2</v>
+        <v>338.38</v>
       </c>
       <c r="D30" t="n">
-        <v>337.24</v>
+        <v>337.33</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         <v>352.27</v>
       </c>
       <c r="C31" t="n">
-        <v>339.05</v>
+        <v>338.9</v>
       </c>
       <c r="D31" t="n">
-        <v>320.8</v>
+        <v>320.73</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
         <v>333.75</v>
       </c>
       <c r="C32" t="n">
-        <v>331.83</v>
+        <v>332.29</v>
       </c>
       <c r="D32" t="n">
-        <v>331.19</v>
+        <v>331.42</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
         <v>336.69</v>
       </c>
       <c r="C33" t="n">
-        <v>331.62</v>
+        <v>331.32</v>
       </c>
       <c r="D33" t="n">
-        <v>336.48</v>
+        <v>336.33</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1143,10 +1143,10 @@
         <v>339.94</v>
       </c>
       <c r="C34" t="n">
-        <v>342.31</v>
+        <v>342.66</v>
       </c>
       <c r="D34" t="n">
-        <v>342.86</v>
+        <v>343.03</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
         <v>345.55</v>
       </c>
       <c r="C35" t="n">
-        <v>345.27</v>
+        <v>345.01</v>
       </c>
       <c r="D35" t="n">
-        <v>343.81</v>
+        <v>343.68</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1185,10 +1185,10 @@
         <v>329.18</v>
       </c>
       <c r="C36" t="n">
-        <v>329.46</v>
+        <v>329.4</v>
       </c>
       <c r="D36" t="n">
-        <v>328.79</v>
+        <v>328.77</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
         <v>341.12</v>
       </c>
       <c r="C37" t="n">
-        <v>341.21</v>
+        <v>341.02</v>
       </c>
       <c r="D37" t="n">
-        <v>337.21</v>
+        <v>337.11</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         <v>329.3</v>
       </c>
       <c r="C38" t="n">
+        <v>333.82</v>
+      </c>
+      <c r="D38" t="n">
         <v>333.63</v>
-      </c>
-      <c r="D38" t="n">
-        <v>333.53</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1248,10 +1248,10 @@
         <v>329.04</v>
       </c>
       <c r="C39" t="n">
-        <v>334.36</v>
+        <v>334.18</v>
       </c>
       <c r="D39" t="n">
-        <v>344.17</v>
+        <v>344.08</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         <v>331.79</v>
       </c>
       <c r="C40" t="n">
-        <v>332.51</v>
+        <v>332.04</v>
       </c>
       <c r="D40" t="n">
-        <v>343.69</v>
+        <v>343.46</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1290,10 +1290,10 @@
         <v>340.88</v>
       </c>
       <c r="C41" t="n">
-        <v>338.51</v>
+        <v>338.72</v>
       </c>
       <c r="D41" t="n">
-        <v>339.73</v>
+        <v>339.83</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1311,10 +1311,10 @@
         <v>338.79</v>
       </c>
       <c r="C42" t="n">
-        <v>339.72</v>
+        <v>339.8</v>
       </c>
       <c r="D42" t="n">
-        <v>340.2</v>
+        <v>340.24</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>344.21</v>
       </c>
       <c r="C43" t="n">
-        <v>338.31</v>
+        <v>337.92</v>
       </c>
       <c r="D43" t="n">
-        <v>337.71</v>
+        <v>337.51</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
         <v>343.87</v>
       </c>
       <c r="C44" t="n">
-        <v>344.21</v>
+        <v>343.94</v>
       </c>
       <c r="D44" t="n">
-        <v>350.26</v>
+        <v>350.12</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1374,10 +1374,10 @@
         <v>350.76</v>
       </c>
       <c r="C45" t="n">
-        <v>345.57</v>
+        <v>345.53</v>
       </c>
       <c r="D45" t="n">
-        <v>351.67</v>
+        <v>351.65</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1395,10 +1395,10 @@
         <v>347.43</v>
       </c>
       <c r="C46" t="n">
-        <v>342.68</v>
+        <v>343.05</v>
       </c>
       <c r="D46" t="n">
-        <v>339.69</v>
+        <v>339.88</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1433,10 +1433,10 @@
         <v>352.45</v>
       </c>
       <c r="C48" t="n">
-        <v>337.97</v>
+        <v>337.93</v>
       </c>
       <c r="D48" t="n">
-        <v>340.23</v>
+        <v>340.21</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1454,10 +1454,10 @@
         <v>342.83</v>
       </c>
       <c r="C49" t="n">
-        <v>339.78</v>
+        <v>340.22</v>
       </c>
       <c r="D49" t="n">
-        <v>335.33</v>
+        <v>335.55</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
         <v>325.22</v>
       </c>
       <c r="C50" t="n">
-        <v>319.81</v>
+        <v>320.15</v>
       </c>
       <c r="D50" t="n">
-        <v>324.25</v>
+        <v>324.42</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         <v>352.93</v>
       </c>
       <c r="C51" t="n">
-        <v>351.15</v>
+        <v>350.9</v>
       </c>
       <c r="D51" t="n">
-        <v>341.87</v>
+        <v>341.74</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1517,10 +1517,10 @@
         <v>347.28</v>
       </c>
       <c r="C52" t="n">
-        <v>344.24</v>
+        <v>344.18</v>
       </c>
       <c r="D52" t="n">
-        <v>336.26</v>
+        <v>336.23</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1538,10 +1538,10 @@
         <v>348.47</v>
       </c>
       <c r="C53" t="n">
-        <v>347.13</v>
+        <v>347.33</v>
       </c>
       <c r="D53" t="n">
-        <v>355.86</v>
+        <v>355.96</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>378.68</v>
+        <v>378.88</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1578,10 +1578,10 @@
         <v>343.41</v>
       </c>
       <c r="C55" t="n">
-        <v>339.15</v>
+        <v>338.95</v>
       </c>
       <c r="D55" t="n">
-        <v>348.14</v>
+        <v>348.04</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         <v>344.43</v>
       </c>
       <c r="C56" t="n">
-        <v>338.36</v>
+        <v>338.27</v>
       </c>
       <c r="D56" t="n">
-        <v>338.35</v>
+        <v>338.31</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1637,10 +1637,10 @@
         <v>346.8</v>
       </c>
       <c r="C58" t="n">
-        <v>346.49</v>
+        <v>346.27</v>
       </c>
       <c r="D58" t="n">
-        <v>351.91</v>
+        <v>351.8</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1658,10 +1658,10 @@
         <v>345.78</v>
       </c>
       <c r="C59" t="n">
-        <v>333.22</v>
+        <v>332.95</v>
       </c>
       <c r="D59" t="n">
-        <v>329.64</v>
+        <v>329.5</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1679,10 +1679,10 @@
         <v>345.15</v>
       </c>
       <c r="C60" t="n">
-        <v>332.65</v>
+        <v>332.58</v>
       </c>
       <c r="D60" t="n">
-        <v>336.65</v>
+        <v>336.62</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>346.65</v>
       </c>
       <c r="C61" t="n">
-        <v>333.31</v>
+        <v>333.58</v>
       </c>
       <c r="D61" t="n">
-        <v>322.72</v>
+        <v>322.86</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1721,10 +1721,10 @@
         <v>344.03</v>
       </c>
       <c r="C62" t="n">
-        <v>337.34</v>
+        <v>337.08</v>
       </c>
       <c r="D62" t="n">
-        <v>340.16</v>
+        <v>340.03</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1742,10 +1742,10 @@
         <v>339.7</v>
       </c>
       <c r="C63" t="n">
-        <v>341.62</v>
+        <v>341.94</v>
       </c>
       <c r="D63" t="n">
-        <v>340.61</v>
+        <v>340.76</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1763,10 +1763,10 @@
         <v>335.86</v>
       </c>
       <c r="C64" t="n">
-        <v>329.62</v>
+        <v>329.83</v>
       </c>
       <c r="D64" t="n">
-        <v>327.38</v>
+        <v>327.48</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1784,10 +1784,10 @@
         <v>345.48</v>
       </c>
       <c r="C65" t="n">
-        <v>339.85</v>
+        <v>339.62</v>
       </c>
       <c r="D65" t="n">
-        <v>338.11</v>
+        <v>337.99</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>331.51</v>
       </c>
       <c r="C66" t="n">
-        <v>342.45</v>
+        <v>342.8</v>
       </c>
       <c r="D66" t="n">
-        <v>346</v>
+        <v>346.18</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         <v>346.11</v>
       </c>
       <c r="C67" t="n">
-        <v>339.61</v>
+        <v>339.21</v>
       </c>
       <c r="D67" t="n">
-        <v>339.51</v>
+        <v>339.31</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1847,10 +1847,10 @@
         <v>344.62</v>
       </c>
       <c r="C68" t="n">
-        <v>338.63</v>
+        <v>338.46</v>
       </c>
       <c r="D68" t="n">
-        <v>344.46</v>
+        <v>344.38</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1868,10 +1868,10 @@
         <v>350.75</v>
       </c>
       <c r="C69" t="n">
-        <v>339.3</v>
+        <v>339.45</v>
       </c>
       <c r="D69" t="n">
-        <v>336.63</v>
+        <v>336.71</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1889,10 +1889,10 @@
         <v>345.2</v>
       </c>
       <c r="C70" t="n">
-        <v>342.43</v>
+        <v>342.14</v>
       </c>
       <c r="D70" t="n">
-        <v>348.9</v>
+        <v>348.76</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>348.89</v>
       </c>
       <c r="C71" t="n">
-        <v>340.04</v>
+        <v>339.97</v>
       </c>
       <c r="D71" t="n">
-        <v>344.01</v>
+        <v>343.97</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>338.09</v>
+        <v>338.28</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>349.93</v>
       </c>
       <c r="C73" t="n">
-        <v>347.87</v>
+        <v>348.14</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -1967,10 +1967,10 @@
         <v>346.56</v>
       </c>
       <c r="C74" t="n">
-        <v>330.2</v>
+        <v>330.05</v>
       </c>
       <c r="D74" t="n">
-        <v>322.29</v>
+        <v>322.21</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>344.24</v>
       </c>
       <c r="C75" t="n">
-        <v>332.8</v>
+        <v>332.67</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -2007,10 +2007,10 @@
         <v>350.04</v>
       </c>
       <c r="C76" t="n">
-        <v>334.05</v>
+        <v>334.25</v>
       </c>
       <c r="D76" t="n">
-        <v>337.44</v>
+        <v>337.54</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2028,10 +2028,10 @@
         <v>348.39</v>
       </c>
       <c r="C77" t="n">
-        <v>341.32</v>
+        <v>341.16</v>
       </c>
       <c r="D77" t="n">
-        <v>339.13</v>
+        <v>339.05</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
         <v>338.56</v>
       </c>
       <c r="C78" t="n">
-        <v>329.77</v>
+        <v>329.53</v>
       </c>
       <c r="D78" t="n">
-        <v>331.94</v>
+        <v>331.82</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2070,10 +2070,10 @@
         <v>337.39</v>
       </c>
       <c r="C79" t="n">
-        <v>331.11</v>
+        <v>331.27</v>
       </c>
       <c r="D79" t="n">
-        <v>336.32</v>
+        <v>336.4</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
         <v>330.62</v>
       </c>
       <c r="C80" t="n">
-        <v>340.18</v>
+        <v>340.53</v>
       </c>
       <c r="D80" t="n">
-        <v>333.73</v>
+        <v>333.9</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>333.35</v>
+        <v>333.23</v>
       </c>
       <c r="D81" t="n">
-        <v>321.29</v>
+        <v>321.23</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>335.35</v>
       </c>
       <c r="C82" t="n">
-        <v>332.36</v>
+        <v>332.02</v>
       </c>
       <c r="D82" t="n">
-        <v>345.16</v>
+        <v>344.99</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2152,10 +2152,10 @@
         <v>347.08</v>
       </c>
       <c r="C83" t="n">
-        <v>337.78</v>
+        <v>337.67</v>
       </c>
       <c r="D83" t="n">
-        <v>338.33</v>
+        <v>338.28</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2173,10 +2173,10 @@
         <v>344.63</v>
       </c>
       <c r="C84" t="n">
-        <v>342.83</v>
+        <v>343.16</v>
       </c>
       <c r="D84" t="n">
-        <v>338.25</v>
+        <v>338.41</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2194,10 +2194,10 @@
         <v>347.57</v>
       </c>
       <c r="C85" t="n">
-        <v>341.06</v>
+        <v>341.08</v>
       </c>
       <c r="D85" t="n">
-        <v>339.61</v>
+        <v>339.62</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2215,10 +2215,10 @@
         <v>341.33</v>
       </c>
       <c r="C86" t="n">
-        <v>337.24</v>
+        <v>337.08</v>
       </c>
       <c r="D86" t="n">
-        <v>339.22</v>
+        <v>339.14</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>317.87</v>
       </c>
       <c r="C87" t="n">
-        <v>301.28</v>
+        <v>301.5</v>
       </c>
       <c r="D87" t="n">
-        <v>285.09</v>
+        <v>285.2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
         <v>340.93</v>
       </c>
       <c r="C88" t="n">
-        <v>328.84</v>
+        <v>328.78</v>
       </c>
       <c r="D88" t="n">
-        <v>314.84</v>
+        <v>314.82</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2278,10 +2278,10 @@
         <v>350</v>
       </c>
       <c r="C89" t="n">
-        <v>341.28</v>
+        <v>341.17</v>
       </c>
       <c r="D89" t="n">
-        <v>337.87</v>
+        <v>337.81</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2299,10 +2299,10 @@
         <v>342.89</v>
       </c>
       <c r="C90" t="n">
-        <v>330.68</v>
+        <v>331.1</v>
       </c>
       <c r="D90" t="n">
-        <v>294.1</v>
+        <v>294.31</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         <v>343.06</v>
       </c>
       <c r="C91" t="n">
-        <v>341.46</v>
+        <v>341.94</v>
       </c>
       <c r="D91" t="n">
-        <v>306.18</v>
+        <v>306.42</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2341,10 +2341,10 @@
         <v>341.83</v>
       </c>
       <c r="C92" t="n">
-        <v>331.79</v>
+        <v>331.68</v>
       </c>
       <c r="D92" t="n">
-        <v>315.61</v>
+        <v>315.55</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>344.06</v>
       </c>
       <c r="C93" t="n">
-        <v>331.73</v>
+        <v>331.74</v>
       </c>
       <c r="D93" t="n">
         <v>327.01</v>
@@ -2383,10 +2383,10 @@
         <v>343.54</v>
       </c>
       <c r="C94" t="n">
-        <v>333.77</v>
+        <v>333.53</v>
       </c>
       <c r="D94" t="n">
-        <v>337.06</v>
+        <v>336.94</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2404,10 +2404,10 @@
         <v>345.3</v>
       </c>
       <c r="C95" t="n">
-        <v>340.09</v>
+        <v>339.7</v>
       </c>
       <c r="D95" t="n">
-        <v>336.03</v>
+        <v>335.84</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2425,10 +2425,10 @@
         <v>339.86</v>
       </c>
       <c r="C96" t="n">
-        <v>335.97</v>
+        <v>335.71</v>
       </c>
       <c r="D96" t="n">
-        <v>336.85</v>
+        <v>336.72</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>329.16</v>
+        <v>329.05</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>321.06</v>
+        <v>320.95</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
@@ -2480,10 +2480,10 @@
         <v>333.75</v>
       </c>
       <c r="C99" t="n">
-        <v>341.59</v>
+        <v>341.78</v>
       </c>
       <c r="D99" t="n">
-        <v>329.36</v>
+        <v>329.46</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2501,10 +2501,10 @@
         <v>338.92</v>
       </c>
       <c r="C100" t="n">
-        <v>335.15</v>
+        <v>335.46</v>
       </c>
       <c r="D100" t="n">
-        <v>326.49</v>
+        <v>326.65</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2522,10 +2522,10 @@
         <v>354.31</v>
       </c>
       <c r="C101" t="n">
-        <v>340.19</v>
+        <v>340.57</v>
       </c>
       <c r="D101" t="n">
-        <v>330.87</v>
+        <v>331.07</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2543,10 +2543,10 @@
         <v>344.83</v>
       </c>
       <c r="C102" t="n">
-        <v>332.57</v>
+        <v>332.4</v>
       </c>
       <c r="D102" t="n">
-        <v>330.75</v>
+        <v>330.67</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         <v>329.45</v>
       </c>
       <c r="C103" t="n">
-        <v>318.93</v>
+        <v>319.27</v>
       </c>
       <c r="D103" t="n">
-        <v>318.03</v>
+        <v>318.2</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2585,10 +2585,10 @@
         <v>347.25</v>
       </c>
       <c r="C104" t="n">
-        <v>332.08</v>
+        <v>331.76</v>
       </c>
       <c r="D104" t="n">
-        <v>334.16</v>
+        <v>334</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2606,10 +2606,10 @@
         <v>349.04</v>
       </c>
       <c r="C105" t="n">
-        <v>337.46</v>
+        <v>337.2</v>
       </c>
       <c r="D105" t="n">
-        <v>338.78</v>
+        <v>338.65</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2627,10 +2627,10 @@
         <v>349.68</v>
       </c>
       <c r="C106" t="n">
-        <v>338.96</v>
+        <v>338.85</v>
       </c>
       <c r="D106" t="n">
-        <v>352.3</v>
+        <v>352.24</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>348.41</v>
       </c>
       <c r="C107" t="n">
-        <v>345.36</v>
+        <v>345.81</v>
       </c>
       <c r="D107" t="n">
-        <v>340.09</v>
+        <v>340.32</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2669,10 +2669,10 @@
         <v>350.42</v>
       </c>
       <c r="C108" t="n">
-        <v>343.48</v>
+        <v>343.45</v>
       </c>
       <c r="D108" t="n">
-        <v>350.29</v>
+        <v>350.28</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2690,10 +2690,10 @@
         <v>358.06</v>
       </c>
       <c r="C109" t="n">
-        <v>346.64</v>
+        <v>346.3</v>
       </c>
       <c r="D109" t="n">
-        <v>334.81</v>
+        <v>334.64</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2711,10 +2711,10 @@
         <v>351.18</v>
       </c>
       <c r="C110" t="n">
-        <v>339.85</v>
+        <v>339.44</v>
       </c>
       <c r="D110" t="n">
-        <v>333.81</v>
+        <v>333.6</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2732,10 +2732,10 @@
         <v>334.13</v>
       </c>
       <c r="C111" t="n">
-        <v>333.37</v>
+        <v>333.59</v>
       </c>
       <c r="D111" t="n">
-        <v>325.48</v>
+        <v>325.59</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2753,10 +2753,10 @@
         <v>340.25</v>
       </c>
       <c r="C112" t="n">
-        <v>333.52</v>
+        <v>333.24</v>
       </c>
       <c r="D112" t="n">
-        <v>337.06</v>
+        <v>336.92</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2774,10 +2774,10 @@
         <v>355.05</v>
       </c>
       <c r="C113" t="n">
-        <v>350.56</v>
+        <v>350.99</v>
       </c>
       <c r="D113" t="n">
-        <v>336.91</v>
+        <v>337.12</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2795,10 +2795,10 @@
         <v>370.42</v>
       </c>
       <c r="C114" t="n">
-        <v>357.82</v>
+        <v>357.48</v>
       </c>
       <c r="D114" t="n">
-        <v>347.45</v>
+        <v>347.28</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2816,10 +2816,10 @@
         <v>346</v>
       </c>
       <c r="C115" t="n">
-        <v>343.51</v>
+        <v>343.33</v>
       </c>
       <c r="D115" t="n">
-        <v>351.14</v>
+        <v>351.05</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2837,10 +2837,10 @@
         <v>339.01</v>
       </c>
       <c r="C116" t="n">
-        <v>329.17</v>
+        <v>328.98</v>
       </c>
       <c r="D116" t="n">
-        <v>332.89</v>
+        <v>332.79</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2858,10 +2858,10 @@
         <v>348.69</v>
       </c>
       <c r="C117" t="n">
-        <v>338.47</v>
+        <v>338.59</v>
       </c>
       <c r="D117" t="n">
-        <v>343.84</v>
+        <v>343.9</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2879,10 +2879,10 @@
         <v>337.1</v>
       </c>
       <c r="C118" t="n">
-        <v>337.6</v>
+        <v>338.01</v>
       </c>
       <c r="D118" t="n">
-        <v>336.55</v>
+        <v>336.76</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2898,10 +2898,10 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>346.74</v>
+        <v>346.9</v>
       </c>
       <c r="D119" t="n">
-        <v>341.67</v>
+        <v>341.76</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2919,10 +2919,10 @@
         <v>345.33</v>
       </c>
       <c r="C120" t="n">
-        <v>344.75</v>
+        <v>345.18</v>
       </c>
       <c r="D120" t="n">
-        <v>345.28</v>
+        <v>345.49</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2940,10 +2940,10 @@
         <v>346.69</v>
       </c>
       <c r="C121" t="n">
-        <v>342.83</v>
+        <v>342.52</v>
       </c>
       <c r="D121" t="n">
-        <v>346.66</v>
+        <v>346.5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2961,10 +2961,10 @@
         <v>350.61</v>
       </c>
       <c r="C122" t="n">
-        <v>346.22</v>
+        <v>346.21</v>
       </c>
       <c r="D122" t="n">
-        <v>351.47</v>
+        <v>351.46</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2982,10 +2982,10 @@
         <v>352.27</v>
       </c>
       <c r="C123" t="n">
-        <v>344.91</v>
+        <v>344.93</v>
       </c>
       <c r="D123" t="n">
-        <v>352.26</v>
+        <v>352.27</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
         <v>336.73</v>
       </c>
       <c r="C124" t="n">
-        <v>336.09</v>
+        <v>336.4</v>
       </c>
       <c r="D124" t="n">
-        <v>326.17</v>
+        <v>326.33</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>345.08</v>
       </c>
       <c r="C125" t="n">
-        <v>341.21</v>
+        <v>340.78</v>
       </c>
       <c r="D125" t="n">
-        <v>338.29</v>
+        <v>338.08</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3045,10 +3045,10 @@
         <v>344.01</v>
       </c>
       <c r="C126" t="n">
-        <v>343.95</v>
+        <v>344.38</v>
       </c>
       <c r="D126" t="n">
-        <v>345.15</v>
+        <v>345.36</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3066,10 +3066,10 @@
         <v>343.98</v>
       </c>
       <c r="C127" t="n">
-        <v>334.83</v>
+        <v>334.52</v>
       </c>
       <c r="D127" t="n">
-        <v>330.94</v>
+        <v>330.78</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3087,10 +3087,10 @@
         <v>351.28</v>
       </c>
       <c r="C128" t="n">
-        <v>336.93</v>
+        <v>337.15</v>
       </c>
       <c r="D128" t="n">
-        <v>336.32</v>
+        <v>336.43</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
         <v>335.13</v>
       </c>
       <c r="C129" t="n">
-        <v>329.96</v>
+        <v>330.31</v>
       </c>
       <c r="D129" t="n">
-        <v>316.96</v>
+        <v>317.14</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3129,10 +3129,10 @@
         <v>338.87</v>
       </c>
       <c r="C130" t="n">
-        <v>324.65</v>
+        <v>324.3</v>
       </c>
       <c r="D130" t="n">
-        <v>325.04</v>
+        <v>324.87</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3150,10 +3150,10 @@
         <v>339.96</v>
       </c>
       <c r="C131" t="n">
-        <v>341.73</v>
+        <v>341.56</v>
       </c>
       <c r="D131" t="n">
-        <v>346.4</v>
+        <v>346.32</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3171,10 +3171,10 @@
         <v>335.33</v>
       </c>
       <c r="C132" t="n">
-        <v>321.18</v>
+        <v>321.6</v>
       </c>
       <c r="D132" t="n">
-        <v>302.37</v>
+        <v>302.59</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3192,10 +3192,10 @@
         <v>346.8</v>
       </c>
       <c r="C133" t="n">
-        <v>336.07</v>
+        <v>335.84</v>
       </c>
       <c r="D133" t="n">
-        <v>337.82</v>
+        <v>337.7</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3213,10 +3213,10 @@
         <v>344.11</v>
       </c>
       <c r="C134" t="n">
-        <v>336.93</v>
+        <v>336.58</v>
       </c>
       <c r="D134" t="n">
-        <v>335.57</v>
+        <v>335.39</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3234,10 +3234,10 @@
         <v>349.06</v>
       </c>
       <c r="C135" t="n">
-        <v>343.24</v>
+        <v>343.71</v>
       </c>
       <c r="D135" t="n">
-        <v>348.37</v>
+        <v>348.61</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3255,10 +3255,10 @@
         <v>345.18</v>
       </c>
       <c r="C136" t="n">
-        <v>337.21</v>
+        <v>336.95</v>
       </c>
       <c r="D136" t="n">
-        <v>346.18</v>
+        <v>346.05</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3276,10 +3276,10 @@
         <v>345.08</v>
       </c>
       <c r="C137" t="n">
-        <v>333.9</v>
+        <v>334.01</v>
       </c>
       <c r="D137" t="n">
-        <v>331.39</v>
+        <v>331.44</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3297,10 +3297,10 @@
         <v>349.62</v>
       </c>
       <c r="C138" t="n">
-        <v>343.64</v>
+        <v>343.82</v>
       </c>
       <c r="D138" t="n">
-        <v>347.36</v>
+        <v>347.45</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3318,10 +3318,10 @@
         <v>351.67</v>
       </c>
       <c r="C139" t="n">
-        <v>341.09</v>
+        <v>341.34</v>
       </c>
       <c r="D139" t="n">
-        <v>345</v>
+        <v>345.12</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         <v>330</v>
       </c>
       <c r="C140" t="n">
-        <v>334.24</v>
+        <v>334.31</v>
       </c>
       <c r="D140" t="n">
-        <v>334.81</v>
+        <v>334.84</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3381,10 +3381,10 @@
         <v>333.29</v>
       </c>
       <c r="C142" t="n">
-        <v>333.49</v>
+        <v>333.82</v>
       </c>
       <c r="D142" t="n">
-        <v>327.8</v>
+        <v>327.97</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>359.54</v>
+        <v>359.34</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3419,10 +3419,10 @@
         <v>345.81</v>
       </c>
       <c r="C144" t="n">
-        <v>333.21</v>
+        <v>332.92</v>
       </c>
       <c r="D144" t="n">
-        <v>317.93</v>
+        <v>317.79</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3440,10 +3440,10 @@
         <v>350.99</v>
       </c>
       <c r="C145" t="n">
-        <v>333.62</v>
+        <v>333.89</v>
       </c>
       <c r="D145" t="n">
-        <v>325.1</v>
+        <v>325.24</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3461,10 +3461,10 @@
         <v>344.68</v>
       </c>
       <c r="C146" t="n">
-        <v>333.14</v>
+        <v>332.86</v>
       </c>
       <c r="D146" t="n">
-        <v>329.98</v>
+        <v>329.84</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3482,10 +3482,10 @@
         <v>341.2</v>
       </c>
       <c r="C147" t="n">
-        <v>333.74</v>
+        <v>333.93</v>
       </c>
       <c r="D147" t="n">
-        <v>329.82</v>
+        <v>329.92</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3503,10 +3503,10 @@
         <v>344.45</v>
       </c>
       <c r="C148" t="n">
-        <v>336.84</v>
+        <v>336.58</v>
       </c>
       <c r="D148" t="n">
-        <v>337.73</v>
+        <v>337.6</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3524,10 +3524,10 @@
         <v>325.1</v>
       </c>
       <c r="C149" t="n">
-        <v>316.66</v>
+        <v>316.31</v>
       </c>
       <c r="D149" t="n">
-        <v>313.03</v>
+        <v>312.85</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3543,10 +3543,10 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>328.58</v>
+        <v>328.78</v>
       </c>
       <c r="D150" t="n">
-        <v>343.6</v>
+        <v>343.7</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3562,10 +3562,10 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>338.2</v>
+        <v>337.97</v>
       </c>
       <c r="D151" t="n">
-        <v>339.57</v>
+        <v>339.45</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3583,10 +3583,10 @@
         <v>346.5</v>
       </c>
       <c r="C152" t="n">
-        <v>339.15</v>
+        <v>339.38</v>
       </c>
       <c r="D152" t="n">
-        <v>344.48</v>
+        <v>344.6</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3604,10 +3604,10 @@
         <v>337.51</v>
       </c>
       <c r="C153" t="n">
-        <v>340.88</v>
+        <v>340.44</v>
       </c>
       <c r="D153" t="n">
-        <v>335.6</v>
+        <v>335.38</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3625,10 +3625,10 @@
         <v>342.33</v>
       </c>
       <c r="C154" t="n">
-        <v>341.86</v>
+        <v>342.22</v>
       </c>
       <c r="D154" t="n">
-        <v>340.53</v>
+        <v>340.71</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>331.66</v>
+        <v>331.87</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3663,10 +3663,10 @@
         <v>330.89</v>
       </c>
       <c r="C156" t="n">
-        <v>338.23</v>
+        <v>338.42</v>
       </c>
       <c r="D156" t="n">
-        <v>340.94</v>
+        <v>341.04</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>336.17</v>
+        <v>336.25</v>
       </c>
       <c r="D157" t="n">
-        <v>334.56</v>
+        <v>334.61</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3703,10 +3703,10 @@
         <v>355.12</v>
       </c>
       <c r="C158" t="n">
-        <v>345.06</v>
+        <v>345.39</v>
       </c>
       <c r="D158" t="n">
-        <v>342.49</v>
+        <v>342.66</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3724,10 +3724,10 @@
         <v>357.93</v>
       </c>
       <c r="C159" t="n">
-        <v>346.92</v>
+        <v>347.28</v>
       </c>
       <c r="D159" t="n">
-        <v>344.83</v>
+        <v>345.01</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3745,10 +3745,10 @@
         <v>345.05</v>
       </c>
       <c r="C160" t="n">
-        <v>336.61</v>
+        <v>336.26</v>
       </c>
       <c r="D160" t="n">
-        <v>336.72</v>
+        <v>336.55</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3766,10 +3766,10 @@
         <v>347.15</v>
       </c>
       <c r="C161" t="n">
-        <v>341.42</v>
+        <v>341.9</v>
       </c>
       <c r="D161" t="n">
-        <v>335.78</v>
+        <v>336.02</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3785,10 +3785,10 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>336.18</v>
+        <v>335.98</v>
       </c>
       <c r="D162" t="n">
-        <v>339.32</v>
+        <v>339.22</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>369.6</v>
       </c>
       <c r="C163" t="n">
-        <v>380.69</v>
+        <v>380.35</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
@@ -3825,10 +3825,10 @@
         <v>339.99</v>
       </c>
       <c r="C164" t="n">
-        <v>345.66</v>
+        <v>346.15</v>
       </c>
       <c r="D164" t="n">
-        <v>345.85</v>
+        <v>346.1</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3846,10 +3846,10 @@
         <v>349.86</v>
       </c>
       <c r="C165" t="n">
-        <v>345.36</v>
+        <v>345.4</v>
       </c>
       <c r="D165" t="n">
-        <v>341.41</v>
+        <v>341.43</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3867,10 +3867,10 @@
         <v>337.67</v>
       </c>
       <c r="C166" t="n">
-        <v>333.79</v>
+        <v>333.74</v>
       </c>
       <c r="D166" t="n">
-        <v>333.1</v>
+        <v>333.07</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3888,10 +3888,10 @@
         <v>342.02</v>
       </c>
       <c r="C167" t="n">
-        <v>340.93</v>
+        <v>340.49</v>
       </c>
       <c r="D167" t="n">
-        <v>354.64</v>
+        <v>354.42</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3909,10 +3909,10 @@
         <v>333.2</v>
       </c>
       <c r="C168" t="n">
-        <v>333.3</v>
+        <v>333.72</v>
       </c>
       <c r="D168" t="n">
-        <v>312.27</v>
+        <v>312.48</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3930,10 +3930,10 @@
         <v>337.94</v>
       </c>
       <c r="C169" t="n">
-        <v>331.63</v>
+        <v>331.31</v>
       </c>
       <c r="D169" t="n">
-        <v>320.69</v>
+        <v>320.53</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3951,10 +3951,10 @@
         <v>341.34</v>
       </c>
       <c r="C170" t="n">
-        <v>326.83</v>
+        <v>326.61</v>
       </c>
       <c r="D170" t="n">
-        <v>323.29</v>
+        <v>323.18</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3972,10 +3972,10 @@
         <v>344.88</v>
       </c>
       <c r="C171" t="n">
-        <v>334.02</v>
+        <v>333.95</v>
       </c>
       <c r="D171" t="n">
-        <v>323.41</v>
+        <v>323.37</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3993,10 +3993,10 @@
         <v>369.15</v>
       </c>
       <c r="C172" t="n">
-        <v>347.34</v>
+        <v>347</v>
       </c>
       <c r="D172" t="n">
-        <v>351.04</v>
+        <v>350.87</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4014,10 +4014,10 @@
         <v>339.18</v>
       </c>
       <c r="C173" t="n">
-        <v>320.22</v>
+        <v>320.75</v>
       </c>
       <c r="D173" t="n">
-        <v>302.76</v>
+        <v>303.03</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4035,10 +4035,10 @@
         <v>354.94</v>
       </c>
       <c r="C174" t="n">
-        <v>342.35</v>
+        <v>342.68</v>
       </c>
       <c r="D174" t="n">
-        <v>337.93</v>
+        <v>338.1</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4056,10 +4056,10 @@
         <v>353.5</v>
       </c>
       <c r="C175" t="n">
-        <v>339</v>
+        <v>339.09</v>
       </c>
       <c r="D175" t="n">
-        <v>328</v>
+        <v>328.05</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4077,10 +4077,10 @@
         <v>343.17</v>
       </c>
       <c r="C176" t="n">
-        <v>338.49</v>
+        <v>338.83</v>
       </c>
       <c r="D176" t="n">
-        <v>320.52</v>
+        <v>320.69</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4098,10 +4098,10 @@
         <v>352.39</v>
       </c>
       <c r="C177" t="n">
-        <v>341.32</v>
+        <v>341.83</v>
       </c>
       <c r="D177" t="n">
-        <v>336.11</v>
+        <v>336.36</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4119,10 +4119,10 @@
         <v>362.92</v>
       </c>
       <c r="C178" t="n">
-        <v>346.07</v>
+        <v>346.55</v>
       </c>
       <c r="D178" t="n">
-        <v>341.18</v>
+        <v>341.42</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4140,10 +4140,10 @@
         <v>342.3</v>
       </c>
       <c r="C179" t="n">
-        <v>327.81</v>
+        <v>327.59</v>
       </c>
       <c r="D179" t="n">
-        <v>324.52</v>
+        <v>324.41</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4161,10 +4161,10 @@
         <v>347.26</v>
       </c>
       <c r="C180" t="n">
-        <v>336.33</v>
+        <v>336.22</v>
       </c>
       <c r="D180" t="n">
-        <v>338.67</v>
+        <v>338.61</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         <v>354.19</v>
       </c>
       <c r="C181" t="n">
-        <v>344.47</v>
+        <v>344.56</v>
       </c>
       <c r="D181" t="n">
-        <v>341.77</v>
+        <v>341.82</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4203,10 +4203,10 @@
         <v>353.87</v>
       </c>
       <c r="C182" t="n">
-        <v>335.36</v>
+        <v>335.02</v>
       </c>
       <c r="D182" t="n">
-        <v>345.79</v>
+        <v>345.62</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4224,10 +4224,10 @@
         <v>346.67</v>
       </c>
       <c r="C183" t="n">
-        <v>335.86</v>
+        <v>336.33</v>
       </c>
       <c r="D183" t="n">
-        <v>326.66</v>
+        <v>326.9</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4245,10 +4245,10 @@
         <v>356.21</v>
       </c>
       <c r="C184" t="n">
-        <v>333.64</v>
+        <v>333.28</v>
       </c>
       <c r="D184" t="n">
-        <v>335.36</v>
+        <v>335.18</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4266,10 +4266,10 @@
         <v>337.41</v>
       </c>
       <c r="C185" t="n">
-        <v>333.96</v>
+        <v>334.18</v>
       </c>
       <c r="D185" t="n">
-        <v>336.39</v>
+        <v>336.5</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4287,10 +4287,10 @@
         <v>339.12</v>
       </c>
       <c r="C186" t="n">
-        <v>337.09</v>
+        <v>336.78</v>
       </c>
       <c r="D186" t="n">
-        <v>339.52</v>
+        <v>339.36</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4308,10 +4308,10 @@
         <v>341.83</v>
       </c>
       <c r="C187" t="n">
-        <v>345.27</v>
+        <v>345.5</v>
       </c>
       <c r="D187" t="n">
-        <v>349.43</v>
+        <v>349.55</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         <v>340.07</v>
       </c>
       <c r="C188" t="n">
-        <v>337.61</v>
+        <v>337.99</v>
       </c>
       <c r="D188" t="n">
-        <v>341.08</v>
+        <v>341.28</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>342.6</v>
       </c>
       <c r="C189" t="n">
-        <v>339.49</v>
+        <v>339.15</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
@@ -4369,10 +4369,10 @@
         <v>353.79</v>
       </c>
       <c r="C190" t="n">
-        <v>341.51</v>
+        <v>341.67</v>
       </c>
       <c r="D190" t="n">
-        <v>341.32</v>
+        <v>341.4</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4390,10 +4390,10 @@
         <v>355.38</v>
       </c>
       <c r="C191" t="n">
-        <v>346.29</v>
+        <v>346.83</v>
       </c>
       <c r="D191" t="n">
-        <v>349.96</v>
+        <v>350.23</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4411,10 +4411,10 @@
         <v>339.74</v>
       </c>
       <c r="C192" t="n">
-        <v>338.12</v>
+        <v>338.21</v>
       </c>
       <c r="D192" t="n">
-        <v>341.76</v>
+        <v>341.81</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4432,10 +4432,10 @@
         <v>306.45</v>
       </c>
       <c r="C193" t="n">
-        <v>304</v>
+        <v>304.11</v>
       </c>
       <c r="D193" t="n">
-        <v>323.08</v>
+        <v>323.13</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4453,10 +4453,10 @@
         <v>342.75</v>
       </c>
       <c r="C194" t="n">
-        <v>334.14</v>
+        <v>334.23</v>
       </c>
       <c r="D194" t="n">
-        <v>339.53</v>
+        <v>339.58</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4474,10 +4474,10 @@
         <v>344.75</v>
       </c>
       <c r="C195" t="n">
-        <v>341.22</v>
+        <v>340.99</v>
       </c>
       <c r="D195" t="n">
-        <v>339.08</v>
+        <v>338.96</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>342.02</v>
       </c>
       <c r="C196" t="n">
-        <v>334.88</v>
+        <v>334.57</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
@@ -4514,7 +4514,7 @@
         <v>351.46</v>
       </c>
       <c r="C197" t="n">
-        <v>340.12</v>
+        <v>340.3</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
@@ -4533,10 +4533,10 @@
         <v>346.14</v>
       </c>
       <c r="C198" t="n">
-        <v>341.27</v>
+        <v>341.48</v>
       </c>
       <c r="D198" t="n">
-        <v>344.63</v>
+        <v>344.73</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4554,10 +4554,10 @@
         <v>338.6</v>
       </c>
       <c r="C199" t="n">
-        <v>344.66</v>
+        <v>344.91</v>
       </c>
       <c r="D199" t="n">
-        <v>333.7</v>
+        <v>333.82</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>347.09</v>
       </c>
       <c r="C200" t="n">
-        <v>352.58</v>
+        <v>352.2</v>
       </c>
       <c r="D200" t="n">
-        <v>349.62</v>
+        <v>349.43</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4596,10 +4596,10 @@
         <v>338.39</v>
       </c>
       <c r="C201" t="n">
-        <v>345.16</v>
+        <v>345.52</v>
       </c>
       <c r="D201" t="n">
-        <v>344.13</v>
+        <v>344.31</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4617,10 +4617,10 @@
         <v>351.64</v>
       </c>
       <c r="C202" t="n">
-        <v>349.74</v>
+        <v>350.18</v>
       </c>
       <c r="D202" t="n">
-        <v>340.89</v>
+        <v>341.11</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
         <v>347.48</v>
       </c>
       <c r="C203" t="n">
-        <v>342.33</v>
+        <v>342.05</v>
       </c>
       <c r="D203" t="n">
-        <v>343.42</v>
+        <v>343.28</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>340.5</v>
       </c>
       <c r="C204" t="n">
-        <v>334.69</v>
+        <v>334.7</v>
       </c>
       <c r="D204" t="n">
         <v>327.62</v>
@@ -4680,10 +4680,10 @@
         <v>350.2</v>
       </c>
       <c r="C205" t="n">
-        <v>345.12</v>
+        <v>345.08</v>
       </c>
       <c r="D205" t="n">
-        <v>343.46</v>
+        <v>343.44</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4701,10 +4701,10 @@
         <v>380.69</v>
       </c>
       <c r="C206" t="n">
-        <v>338.26</v>
+        <v>337.93</v>
       </c>
       <c r="D206" t="n">
-        <v>353.56</v>
+        <v>353.4</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>337.51</v>
       </c>
       <c r="C207" t="n">
-        <v>342.8</v>
+        <v>343.26</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
@@ -4741,10 +4741,10 @@
         <v>350.17</v>
       </c>
       <c r="C208" t="n">
-        <v>346.94</v>
+        <v>346.64</v>
       </c>
       <c r="D208" t="n">
-        <v>348.01</v>
+        <v>347.86</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4762,10 +4762,10 @@
         <v>344.36</v>
       </c>
       <c r="C209" t="n">
-        <v>338.97</v>
+        <v>339.33</v>
       </c>
       <c r="D209" t="n">
-        <v>339.05</v>
+        <v>339.23</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4783,10 +4783,10 @@
         <v>338.34</v>
       </c>
       <c r="C210" t="n">
-        <v>333.42</v>
+        <v>333.1</v>
       </c>
       <c r="D210" t="n">
-        <v>333.74</v>
+        <v>333.59</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4804,10 +4804,10 @@
         <v>351.05</v>
       </c>
       <c r="C211" t="n">
-        <v>344.67</v>
+        <v>344.52</v>
       </c>
       <c r="D211" t="n">
-        <v>349.67</v>
+        <v>349.59</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4825,10 +4825,10 @@
         <v>350.5</v>
       </c>
       <c r="C212" t="n">
-        <v>338.62</v>
+        <v>338.77</v>
       </c>
       <c r="D212" t="n">
-        <v>343.98</v>
+        <v>344.05</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         <v>352.33</v>
       </c>
       <c r="C213" t="n">
-        <v>342.93</v>
+        <v>343.27</v>
       </c>
       <c r="D213" t="n">
-        <v>343.88</v>
+        <v>344.05</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4867,10 +4867,10 @@
         <v>345.04</v>
       </c>
       <c r="C214" t="n">
-        <v>337.25</v>
+        <v>336.99</v>
       </c>
       <c r="D214" t="n">
-        <v>339.57</v>
+        <v>339.44</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4888,10 +4888,10 @@
         <v>346.69</v>
       </c>
       <c r="C215" t="n">
-        <v>342.97</v>
+        <v>342.68</v>
       </c>
       <c r="D215" t="n">
-        <v>344.15</v>
+        <v>344</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4909,10 +4909,10 @@
         <v>340.95</v>
       </c>
       <c r="C216" t="n">
-        <v>336.2</v>
+        <v>336.57</v>
       </c>
       <c r="D216" t="n">
-        <v>340.3</v>
+        <v>340.49</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>343.75</v>
       </c>
       <c r="C217" t="n">
-        <v>343.56</v>
+        <v>343.55</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
@@ -4949,10 +4949,10 @@
         <v>353.08</v>
       </c>
       <c r="C218" t="n">
-        <v>342.89</v>
+        <v>342.99</v>
       </c>
       <c r="D218" t="n">
-        <v>340.24</v>
+        <v>340.29</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4970,10 +4970,10 @@
         <v>354.26</v>
       </c>
       <c r="C219" t="n">
-        <v>350.93</v>
+        <v>351.3</v>
       </c>
       <c r="D219" t="n">
-        <v>354.71</v>
+        <v>354.9</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4991,10 +4991,10 @@
         <v>345.45</v>
       </c>
       <c r="C220" t="n">
-        <v>349.81</v>
+        <v>349.47</v>
       </c>
       <c r="D220" t="n">
-        <v>353.84</v>
+        <v>353.67</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -5012,10 +5012,10 @@
         <v>346.93</v>
       </c>
       <c r="C221" t="n">
-        <v>348.77</v>
+        <v>348.91</v>
       </c>
       <c r="D221" t="n">
-        <v>357.51</v>
+        <v>357.58</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>364.51</v>
+        <v>364.36</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5052,10 +5052,10 @@
         <v>348.66</v>
       </c>
       <c r="C223" t="n">
-        <v>343.92</v>
+        <v>343.88</v>
       </c>
       <c r="D223" t="n">
-        <v>356.05</v>
+        <v>356.03</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -5073,10 +5073,10 @@
         <v>345.38</v>
       </c>
       <c r="C224" t="n">
-        <v>344.82</v>
+        <v>344.86</v>
       </c>
       <c r="D224" t="n">
-        <v>348.44</v>
+        <v>348.46</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         <v>326.19</v>
       </c>
       <c r="C225" t="n">
-        <v>325.38</v>
+        <v>325.29</v>
       </c>
       <c r="D225" t="n">
-        <v>333.64</v>
+        <v>333.6</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5115,10 +5115,10 @@
         <v>336.83</v>
       </c>
       <c r="C226" t="n">
-        <v>345.56</v>
+        <v>345.19</v>
       </c>
       <c r="D226" t="n">
-        <v>345.72</v>
+        <v>345.53</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5136,10 +5136,10 @@
         <v>319.76</v>
       </c>
       <c r="C227" t="n">
-        <v>325.85</v>
+        <v>326.14</v>
       </c>
       <c r="D227" t="n">
-        <v>325.42</v>
+        <v>325.57</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5157,10 +5157,10 @@
         <v>356.76</v>
       </c>
       <c r="C228" t="n">
-        <v>351.59</v>
+        <v>351.22</v>
       </c>
       <c r="D228" t="n">
-        <v>351.89</v>
+        <v>351.7</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5178,10 +5178,10 @@
         <v>356.29</v>
       </c>
       <c r="C229" t="n">
-        <v>339.41</v>
+        <v>339.74</v>
       </c>
       <c r="D229" t="n">
-        <v>335.53</v>
+        <v>335.7</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5199,10 +5199,10 @@
         <v>356.39</v>
       </c>
       <c r="C230" t="n">
-        <v>346.4</v>
+        <v>346.06</v>
       </c>
       <c r="D230" t="n">
-        <v>335.34</v>
+        <v>335.17</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5220,10 +5220,10 @@
         <v>343.35</v>
       </c>
       <c r="C231" t="n">
-        <v>337.98</v>
+        <v>337.72</v>
       </c>
       <c r="D231" t="n">
-        <v>338.63</v>
+        <v>338.5</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5241,10 +5241,10 @@
         <v>343.17</v>
       </c>
       <c r="C232" t="n">
-        <v>333.92</v>
+        <v>333.68</v>
       </c>
       <c r="D232" t="n">
-        <v>334.41</v>
+        <v>334.29</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5262,10 +5262,10 @@
         <v>351.73</v>
       </c>
       <c r="C233" t="n">
-        <v>342.53</v>
+        <v>342.75</v>
       </c>
       <c r="D233" t="n">
-        <v>351.39</v>
+        <v>351.5</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5283,10 +5283,10 @@
         <v>345.43</v>
       </c>
       <c r="C234" t="n">
-        <v>337.04</v>
+        <v>336.89</v>
       </c>
       <c r="D234" t="n">
-        <v>338.81</v>
+        <v>338.73</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5304,10 +5304,10 @@
         <v>352.46</v>
       </c>
       <c r="C235" t="n">
-        <v>340.04</v>
+        <v>340.22</v>
       </c>
       <c r="D235" t="n">
-        <v>343.17</v>
+        <v>343.26</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5325,10 +5325,10 @@
         <v>351.94</v>
       </c>
       <c r="C236" t="n">
-        <v>351.72</v>
+        <v>351.67</v>
       </c>
       <c r="D236" t="n">
-        <v>348.3</v>
+        <v>348.27</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5346,10 +5346,10 @@
         <v>356.17</v>
       </c>
       <c r="C237" t="n">
-        <v>344.96</v>
+        <v>345.28</v>
       </c>
       <c r="D237" t="n">
-        <v>344.63</v>
+        <v>344.78</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>345.64</v>
       </c>
       <c r="C238" t="n">
-        <v>335.78</v>
+        <v>335.62</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
@@ -5386,10 +5386,10 @@
         <v>331.06</v>
       </c>
       <c r="C239" t="n">
-        <v>333.2</v>
+        <v>332.98</v>
       </c>
       <c r="D239" t="n">
-        <v>329.78</v>
+        <v>329.67</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5407,10 +5407,10 @@
         <v>345.76</v>
       </c>
       <c r="C240" t="n">
-        <v>333.82</v>
+        <v>333.43</v>
       </c>
       <c r="D240" t="n">
-        <v>325.4</v>
+        <v>325.21</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5428,10 +5428,10 @@
         <v>341.35</v>
       </c>
       <c r="C241" t="n">
-        <v>337.16</v>
+        <v>337.53</v>
       </c>
       <c r="D241" t="n">
-        <v>332.95</v>
+        <v>333.14</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5466,10 +5466,10 @@
         <v>344.25</v>
       </c>
       <c r="C243" t="n">
-        <v>347.17</v>
+        <v>346.92</v>
       </c>
       <c r="D243" t="n">
-        <v>352.83</v>
+        <v>352.71</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5487,10 +5487,10 @@
         <v>358.25</v>
       </c>
       <c r="C244" t="n">
-        <v>339.5</v>
+        <v>339.33</v>
       </c>
       <c r="D244" t="n">
-        <v>338.8</v>
+        <v>338.72</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>375.5</v>
       </c>
       <c r="C245" t="n">
-        <v>352.48</v>
+        <v>352.1</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
@@ -5527,10 +5527,10 @@
         <v>357.7</v>
       </c>
       <c r="C246" t="n">
-        <v>345.25</v>
+        <v>345.77</v>
       </c>
       <c r="D246" t="n">
-        <v>338.26</v>
+        <v>338.52</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5548,10 +5548,10 @@
         <v>343.43</v>
       </c>
       <c r="C247" t="n">
-        <v>341.98</v>
+        <v>342.12</v>
       </c>
       <c r="D247" t="n">
-        <v>344.68</v>
+        <v>344.75</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5569,10 +5569,10 @@
         <v>351.49</v>
       </c>
       <c r="C248" t="n">
-        <v>338.18</v>
+        <v>338.3</v>
       </c>
       <c r="D248" t="n">
-        <v>341.08</v>
+        <v>341.14</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5590,10 +5590,10 @@
         <v>345.45</v>
       </c>
       <c r="C249" t="n">
-        <v>339.59</v>
+        <v>339.8</v>
       </c>
       <c r="D249" t="n">
-        <v>346.02</v>
+        <v>346.12</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5611,10 +5611,10 @@
         <v>343.73</v>
       </c>
       <c r="C250" t="n">
-        <v>341.59</v>
+        <v>341.33</v>
       </c>
       <c r="D250" t="n">
-        <v>339.1</v>
+        <v>338.97</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5632,10 +5632,10 @@
         <v>350.15</v>
       </c>
       <c r="C251" t="n">
-        <v>343.77</v>
+        <v>344.28</v>
       </c>
       <c r="D251" t="n">
-        <v>349.44</v>
+        <v>349.69</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5653,10 +5653,10 @@
         <v>336.19</v>
       </c>
       <c r="C252" t="n">
-        <v>336.51</v>
+        <v>336.35</v>
       </c>
       <c r="D252" t="n">
-        <v>359.02</v>
+        <v>358.93</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5674,10 +5674,10 @@
         <v>353.38</v>
       </c>
       <c r="C253" t="n">
-        <v>348.15</v>
+        <v>348.22</v>
       </c>
       <c r="D253" t="n">
-        <v>355.91</v>
+        <v>355.94</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5695,10 +5695,10 @@
         <v>350.29</v>
       </c>
       <c r="C254" t="n">
-        <v>344.97</v>
+        <v>345.01</v>
       </c>
       <c r="D254" t="n">
-        <v>354.18</v>
+        <v>354.2</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5716,10 +5716,10 @@
         <v>340.93</v>
       </c>
       <c r="C255" t="n">
-        <v>327.53</v>
+        <v>327.14</v>
       </c>
       <c r="D255" t="n">
-        <v>324.73</v>
+        <v>324.54</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -5737,10 +5737,10 @@
         <v>348.5</v>
       </c>
       <c r="C256" t="n">
-        <v>338.07</v>
+        <v>338.45</v>
       </c>
       <c r="D256" t="n">
-        <v>336.15</v>
+        <v>336.34</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         <v>344.57</v>
       </c>
       <c r="C257" t="n">
-        <v>336.94</v>
+        <v>336.68</v>
       </c>
       <c r="D257" t="n">
-        <v>336.22</v>
+        <v>336.09</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5779,10 +5779,10 @@
         <v>334.88</v>
       </c>
       <c r="C258" t="n">
-        <v>327.56</v>
+        <v>327.99</v>
       </c>
       <c r="D258" t="n">
-        <v>322.28</v>
+        <v>322.49</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         <v>345.51</v>
       </c>
       <c r="C259" t="n">
-        <v>334.9</v>
+        <v>334.86</v>
       </c>
       <c r="D259" t="n">
-        <v>340.78</v>
+        <v>340.76</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5821,10 +5821,10 @@
         <v>345.27</v>
       </c>
       <c r="C260" t="n">
-        <v>333.96</v>
+        <v>333.89</v>
       </c>
       <c r="D260" t="n">
-        <v>329.42</v>
+        <v>329.38</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5842,10 +5842,10 @@
         <v>338.17</v>
       </c>
       <c r="C261" t="n">
-        <v>334.07</v>
+        <v>334.25</v>
       </c>
       <c r="D261" t="n">
-        <v>325.15</v>
+        <v>325.24</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -5863,10 +5863,10 @@
         <v>339.36</v>
       </c>
       <c r="C262" t="n">
-        <v>340.16</v>
+        <v>339.96</v>
       </c>
       <c r="D262" t="n">
-        <v>325.63</v>
+        <v>325.53</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5884,10 +5884,10 @@
         <v>338.18</v>
       </c>
       <c r="C263" t="n">
-        <v>330.58</v>
+        <v>330.5</v>
       </c>
       <c r="D263" t="n">
-        <v>324.27</v>
+        <v>324.23</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -5905,10 +5905,10 @@
         <v>339.94</v>
       </c>
       <c r="C264" t="n">
-        <v>328.74</v>
+        <v>328.45</v>
       </c>
       <c r="D264" t="n">
-        <v>334.48</v>
+        <v>334.33</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -5926,10 +5926,10 @@
         <v>344.89</v>
       </c>
       <c r="C265" t="n">
-        <v>342.6</v>
+        <v>342.66</v>
       </c>
       <c r="D265" t="n">
-        <v>341.5</v>
+        <v>341.53</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -5964,10 +5964,10 @@
         <v>347.81</v>
       </c>
       <c r="C267" t="n">
-        <v>344.41</v>
+        <v>344.53</v>
       </c>
       <c r="D267" t="n">
-        <v>348.46</v>
+        <v>348.52</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>321.44</v>
       </c>
       <c r="C268" t="n">
-        <v>340.56</v>
+        <v>340.87</v>
       </c>
       <c r="D268" t="n">
-        <v>330.77</v>
+        <v>330.93</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         <v>332.45</v>
       </c>
       <c r="C269" t="n">
-        <v>334.84</v>
+        <v>334.44</v>
       </c>
       <c r="D269" t="n">
-        <v>335.24</v>
+        <v>335.04</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -6027,10 +6027,10 @@
         <v>342.44</v>
       </c>
       <c r="C270" t="n">
-        <v>328.74</v>
+        <v>328.89</v>
       </c>
       <c r="D270" t="n">
-        <v>329.88</v>
+        <v>329.96</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6048,10 +6048,10 @@
         <v>345.58</v>
       </c>
       <c r="C271" t="n">
-        <v>341.2</v>
+        <v>340.92</v>
       </c>
       <c r="D271" t="n">
-        <v>343.81</v>
+        <v>343.67</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -6069,10 +6069,10 @@
         <v>344.56</v>
       </c>
       <c r="C272" t="n">
-        <v>339.53</v>
+        <v>339.25</v>
       </c>
       <c r="D272" t="n">
-        <v>344.56</v>
+        <v>344.42</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>308.81</v>
       </c>
       <c r="C273" t="n">
-        <v>311</v>
+        <v>311.56</v>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
@@ -6109,10 +6109,10 @@
         <v>341.01</v>
       </c>
       <c r="C274" t="n">
-        <v>326.93</v>
+        <v>326.66</v>
       </c>
       <c r="D274" t="n">
-        <v>320.87</v>
+        <v>320.73</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6130,10 +6130,10 @@
         <v>344.98</v>
       </c>
       <c r="C275" t="n">
-        <v>332.04</v>
+        <v>331.76</v>
       </c>
       <c r="D275" t="n">
-        <v>322.97</v>
+        <v>322.83</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6151,10 +6151,10 @@
         <v>331.19</v>
       </c>
       <c r="C276" t="n">
-        <v>318.73</v>
+        <v>318.71</v>
       </c>
       <c r="D276" t="n">
-        <v>297.08</v>
+        <v>297.07</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6172,10 +6172,10 @@
         <v>328.45</v>
       </c>
       <c r="C277" t="n">
-        <v>326.9</v>
+        <v>326.89</v>
       </c>
       <c r="D277" t="n">
-        <v>324.71</v>
+        <v>324.7</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6193,10 +6193,10 @@
         <v>343.6</v>
       </c>
       <c r="C278" t="n">
-        <v>327.98</v>
+        <v>328.16</v>
       </c>
       <c r="D278" t="n">
-        <v>304.85</v>
+        <v>304.94</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6214,10 +6214,10 @@
         <v>335.18</v>
       </c>
       <c r="C279" t="n">
-        <v>321.6</v>
+        <v>321.79</v>
       </c>
       <c r="D279" t="n">
-        <v>295.46</v>
+        <v>295.56</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
-        <v>343.57</v>
+        <v>343.33</v>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
@@ -6252,10 +6252,10 @@
         <v>348.94</v>
       </c>
       <c r="C281" t="n">
-        <v>337.65</v>
+        <v>337.52</v>
       </c>
       <c r="D281" t="n">
-        <v>326.1</v>
+        <v>326.04</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>323.38</v>
       </c>
       <c r="C282" t="n">
-        <v>304.77</v>
+        <v>304.98</v>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
@@ -6292,10 +6292,10 @@
         <v>335.84</v>
       </c>
       <c r="C283" t="n">
-        <v>322.24</v>
+        <v>322.62</v>
       </c>
       <c r="D283" t="n">
-        <v>310.75</v>
+        <v>310.94</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
-        <v>317.75</v>
+        <v>317.62</v>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
@@ -6330,10 +6330,10 @@
         <v>347.56</v>
       </c>
       <c r="C285" t="n">
-        <v>337.67</v>
+        <v>337.36</v>
       </c>
       <c r="D285" t="n">
-        <v>337.82</v>
+        <v>337.66</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6351,10 +6351,10 @@
         <v>332.89</v>
       </c>
       <c r="C286" t="n">
-        <v>320.47</v>
+        <v>320.55</v>
       </c>
       <c r="D286" t="n">
-        <v>321.13</v>
+        <v>321.17</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6372,10 +6372,10 @@
         <v>336.17</v>
       </c>
       <c r="C287" t="n">
-        <v>320.57</v>
+        <v>320.58</v>
       </c>
       <c r="D287" t="n">
-        <v>324.78</v>
+        <v>324.79</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6393,10 +6393,10 @@
         <v>364.5</v>
       </c>
       <c r="C288" t="n">
-        <v>334.02</v>
+        <v>333.69</v>
       </c>
       <c r="D288" t="n">
-        <v>330.79</v>
+        <v>330.63</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6414,10 +6414,10 @@
         <v>371.41</v>
       </c>
       <c r="C289" t="n">
-        <v>338.22</v>
+        <v>337.91</v>
       </c>
       <c r="D289" t="n">
-        <v>333.23</v>
+        <v>333.07</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6435,10 +6435,10 @@
         <v>335.1</v>
       </c>
       <c r="C290" t="n">
-        <v>314</v>
+        <v>314.47</v>
       </c>
       <c r="D290" t="n">
-        <v>330.16</v>
+        <v>330.39</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -6456,10 +6456,10 @@
         <v>338.07</v>
       </c>
       <c r="C291" t="n">
-        <v>331.27</v>
+        <v>330.95</v>
       </c>
       <c r="D291" t="n">
-        <v>339.04</v>
+        <v>338.89</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6477,10 +6477,10 @@
         <v>354.05</v>
       </c>
       <c r="C292" t="n">
-        <v>340.99</v>
+        <v>341.29</v>
       </c>
       <c r="D292" t="n">
-        <v>335.78</v>
+        <v>335.93</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6498,10 +6498,10 @@
         <v>328.67</v>
       </c>
       <c r="C293" t="n">
-        <v>322.19</v>
+        <v>322.35</v>
       </c>
       <c r="D293" t="n">
-        <v>335.03</v>
+        <v>335.12</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6519,10 +6519,10 @@
         <v>330.44</v>
       </c>
       <c r="C294" t="n">
-        <v>332.24</v>
+        <v>331.93</v>
       </c>
       <c r="D294" t="n">
-        <v>321.68</v>
+        <v>321.52</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6540,10 +6540,10 @@
         <v>343.31</v>
       </c>
       <c r="C295" t="n">
-        <v>331.67</v>
+        <v>331.5</v>
       </c>
       <c r="D295" t="n">
-        <v>337</v>
+        <v>336.92</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6561,10 +6561,10 @@
         <v>332.88</v>
       </c>
       <c r="C296" t="n">
-        <v>337.09</v>
+        <v>337.32</v>
       </c>
       <c r="D296" t="n">
-        <v>344.73</v>
+        <v>344.85</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6582,10 +6582,10 @@
         <v>339.83</v>
       </c>
       <c r="C297" t="n">
-        <v>325.69</v>
+        <v>325.4</v>
       </c>
       <c r="D297" t="n">
-        <v>326.29</v>
+        <v>326.14</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6603,10 +6603,10 @@
         <v>327.62</v>
       </c>
       <c r="C298" t="n">
-        <v>321.48</v>
+        <v>321.31</v>
       </c>
       <c r="D298" t="n">
-        <v>328.76</v>
+        <v>328.68</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>345.71</v>
       </c>
       <c r="C299" t="n">
-        <v>334.93</v>
+        <v>334.87</v>
       </c>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
@@ -6643,10 +6643,10 @@
         <v>328.53</v>
       </c>
       <c r="C300" t="n">
-        <v>318.09</v>
+        <v>318.13</v>
       </c>
       <c r="D300" t="n">
-        <v>325.41</v>
+        <v>325.43</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>339.28</v>
       </c>
       <c r="C301" t="n">
-        <v>321.96</v>
+        <v>322.42</v>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
@@ -6683,10 +6683,10 @@
         <v>333.67</v>
       </c>
       <c r="C302" t="n">
-        <v>323.03</v>
+        <v>323.28</v>
       </c>
       <c r="D302" t="n">
-        <v>331.61</v>
+        <v>331.73</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6704,10 +6704,10 @@
         <v>325.5</v>
       </c>
       <c r="C303" t="n">
-        <v>293.24</v>
+        <v>293.62</v>
       </c>
       <c r="D303" t="n">
-        <v>305.08</v>
+        <v>305.28</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6725,10 +6725,10 @@
         <v>343.88</v>
       </c>
       <c r="C304" t="n">
-        <v>338.68</v>
+        <v>338.38</v>
       </c>
       <c r="D304" t="n">
-        <v>336.54</v>
+        <v>336.39</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6746,10 +6746,10 @@
         <v>350.46</v>
       </c>
       <c r="C305" t="n">
-        <v>336.87</v>
+        <v>337.05</v>
       </c>
       <c r="D305" t="n">
-        <v>343.05</v>
+        <v>343.14</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6767,10 +6767,10 @@
         <v>346.17</v>
       </c>
       <c r="C306" t="n">
-        <v>323.83</v>
+        <v>323.81</v>
       </c>
       <c r="D306" t="n">
-        <v>334.26</v>
+        <v>334.25</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6788,10 +6788,10 @@
         <v>348.71</v>
       </c>
       <c r="C307" t="n">
-        <v>336.19</v>
+        <v>336.33</v>
       </c>
       <c r="D307" t="n">
-        <v>343.74</v>
+        <v>343.81</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>342.19</v>
       </c>
       <c r="C308" t="n">
-        <v>334.96</v>
+        <v>334.77</v>
       </c>
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr">
@@ -6826,10 +6826,10 @@
       </c>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="n">
-        <v>343.81</v>
+        <v>343.99</v>
       </c>
       <c r="D309" t="n">
-        <v>342.5</v>
+        <v>342.59</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -6847,10 +6847,10 @@
         <v>341.4</v>
       </c>
       <c r="C310" t="n">
-        <v>333.96</v>
+        <v>333.64</v>
       </c>
       <c r="D310" t="n">
-        <v>336.44</v>
+        <v>336.29</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -6868,10 +6868,10 @@
         <v>334.08</v>
       </c>
       <c r="C311" t="n">
-        <v>317.25</v>
+        <v>317.63</v>
       </c>
       <c r="D311" t="n">
-        <v>335.76</v>
+        <v>335.95</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6889,10 +6889,10 @@
         <v>340.2</v>
       </c>
       <c r="C312" t="n">
-        <v>338.22</v>
+        <v>338.55</v>
       </c>
       <c r="D312" t="n">
-        <v>346.36</v>
+        <v>346.53</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         <v>342.5</v>
       </c>
       <c r="C313" t="n">
-        <v>332.55</v>
+        <v>332.67</v>
       </c>
       <c r="D313" t="n">
-        <v>344</v>
+        <v>344.06</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -6931,10 +6931,10 @@
         <v>335.32</v>
       </c>
       <c r="C314" t="n">
-        <v>334.54</v>
+        <v>334.64</v>
       </c>
       <c r="D314" t="n">
-        <v>344.51</v>
+        <v>344.56</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -6952,10 +6952,10 @@
         <v>341.31</v>
       </c>
       <c r="C315" t="n">
-        <v>336.2</v>
+        <v>335.88</v>
       </c>
       <c r="D315" t="n">
-        <v>342.4</v>
+        <v>342.24</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -6973,10 +6973,10 @@
         <v>343.69</v>
       </c>
       <c r="C316" t="n">
-        <v>334.84</v>
+        <v>334.53</v>
       </c>
       <c r="D316" t="n">
-        <v>336.37</v>
+        <v>336.21</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -6994,10 +6994,10 @@
         <v>354.67</v>
       </c>
       <c r="C317" t="n">
-        <v>346.27</v>
+        <v>346.57</v>
       </c>
       <c r="D317" t="n">
-        <v>344.39</v>
+        <v>344.54</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -7015,10 +7015,10 @@
         <v>348.19</v>
       </c>
       <c r="C318" t="n">
-        <v>343.98</v>
+        <v>344.15</v>
       </c>
       <c r="D318" t="n">
-        <v>344.6</v>
+        <v>344.68</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -7036,10 +7036,10 @@
         <v>348.16</v>
       </c>
       <c r="C319" t="n">
-        <v>344.57</v>
+        <v>344.38</v>
       </c>
       <c r="D319" t="n">
-        <v>345.19</v>
+        <v>345.09</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -7057,10 +7057,10 @@
         <v>333.92</v>
       </c>
       <c r="C320" t="n">
-        <v>329.06</v>
+        <v>329.5</v>
       </c>
       <c r="D320" t="n">
-        <v>334.42</v>
+        <v>334.64</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -7078,10 +7078,10 @@
         <v>344.62</v>
       </c>
       <c r="C321" t="n">
-        <v>339.73</v>
+        <v>339.42</v>
       </c>
       <c r="D321" t="n">
-        <v>347.57</v>
+        <v>347.41</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="n">
-        <v>315.79</v>
+        <v>316.07</v>
       </c>
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr">
@@ -7114,10 +7114,10 @@
       </c>
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="n">
-        <v>332.01</v>
+        <v>331.9</v>
       </c>
       <c r="D323" t="n">
-        <v>339.65</v>
+        <v>339.6</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -7135,10 +7135,10 @@
         <v>338.25</v>
       </c>
       <c r="C324" t="n">
-        <v>338.11</v>
+        <v>338.34</v>
       </c>
       <c r="D324" t="n">
-        <v>343.41</v>
+        <v>343.53</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -7156,10 +7156,10 @@
         <v>326.82</v>
       </c>
       <c r="C325" t="n">
-        <v>331.44</v>
+        <v>331.6</v>
       </c>
       <c r="D325" t="n">
-        <v>336.3</v>
+        <v>336.39</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>332.14</v>
       </c>
       <c r="C326" t="n">
-        <v>328.54</v>
+        <v>328.55</v>
       </c>
       <c r="D326" t="n">
         <v>330.46</v>
@@ -7198,10 +7198,10 @@
         <v>345.6</v>
       </c>
       <c r="C327" t="n">
-        <v>336.85</v>
+        <v>336.66</v>
       </c>
       <c r="D327" t="n">
-        <v>338.11</v>
+        <v>338.01</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -7219,10 +7219,10 @@
         <v>339.21</v>
       </c>
       <c r="C328" t="n">
-        <v>335.96</v>
+        <v>336.27</v>
       </c>
       <c r="D328" t="n">
-        <v>331.38</v>
+        <v>331.54</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -7240,10 +7240,10 @@
         <v>332.15</v>
       </c>
       <c r="C329" t="n">
-        <v>342.38</v>
+        <v>342.54</v>
       </c>
       <c r="D329" t="n">
-        <v>341.82</v>
+        <v>341.91</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7261,10 +7261,10 @@
         <v>333.59</v>
       </c>
       <c r="C330" t="n">
-        <v>331.99</v>
+        <v>332.08</v>
       </c>
       <c r="D330" t="n">
-        <v>336.01</v>
+        <v>336.05</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -7282,10 +7282,10 @@
         <v>319.49</v>
       </c>
       <c r="C331" t="n">
-        <v>342.27</v>
+        <v>342.66</v>
       </c>
       <c r="D331" t="n">
-        <v>345.72</v>
+        <v>345.91</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -7303,10 +7303,10 @@
         <v>344.24</v>
       </c>
       <c r="C332" t="n">
-        <v>336.57</v>
+        <v>336.23</v>
       </c>
       <c r="D332" t="n">
-        <v>357.58</v>
+        <v>357.41</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7324,10 +7324,10 @@
         <v>341.42</v>
       </c>
       <c r="C333" t="n">
-        <v>335.82</v>
+        <v>335.38</v>
       </c>
       <c r="D333" t="n">
-        <v>341.62</v>
+        <v>341.4</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7345,10 +7345,10 @@
         <v>334.12</v>
       </c>
       <c r="C334" t="n">
-        <v>333.78</v>
+        <v>333.68</v>
       </c>
       <c r="D334" t="n">
-        <v>338.86</v>
+        <v>338.81</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7366,10 +7366,10 @@
         <v>342.93</v>
       </c>
       <c r="C335" t="n">
-        <v>335.32</v>
+        <v>335.44</v>
       </c>
       <c r="D335" t="n">
-        <v>334.24</v>
+        <v>334.3</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -7387,10 +7387,10 @@
         <v>343.7</v>
       </c>
       <c r="C336" t="n">
-        <v>335.79</v>
+        <v>335.49</v>
       </c>
       <c r="D336" t="n">
-        <v>348.95</v>
+        <v>348.8</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7408,10 +7408,10 @@
         <v>328.48</v>
       </c>
       <c r="C337" t="n">
-        <v>340.24</v>
+        <v>340.4</v>
       </c>
       <c r="D337" t="n">
-        <v>332.44</v>
+        <v>332.52</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1361457364823175</v>
+        <v>-0.1343753333701452</v>
       </c>
       <c r="J3" t="n">
         <v>336</v>
@@ -11488,19 +11488,19 @@
         <v>326</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01262573394437261</v>
+        <v>0.01236773620585541</v>
       </c>
       <c r="M3" t="n">
-        <v>6.253038735273235</v>
+        <v>6.269306218601288</v>
       </c>
       <c r="N3" t="n">
-        <v>77.65541636441846</v>
+        <v>77.24718385974103</v>
       </c>
       <c r="O3" t="n">
-        <v>8.812231066218047</v>
+        <v>8.789037709541416</v>
       </c>
       <c r="P3" t="n">
-        <v>338.7334298819754</v>
+        <v>338.7141351110568</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06897522866288622</v>
+        <v>0.06966219019440746</v>
       </c>
       <c r="J4" t="n">
         <v>336</v>
@@ -11566,19 +11566,19 @@
         <v>313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001740351749720759</v>
+        <v>0.001781478578113949</v>
       </c>
       <c r="M4" t="n">
-        <v>8.817734174426761</v>
+        <v>8.805573193680003</v>
       </c>
       <c r="N4" t="n">
-        <v>146.3486310073825</v>
+        <v>145.8260636634446</v>
       </c>
       <c r="O4" t="n">
-        <v>12.09746382542153</v>
+        <v>12.07584629181097</v>
       </c>
       <c r="P4" t="n">
-        <v>335.3579908843137</v>
+        <v>335.3522319281343</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11664,12 +11664,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-36.75791051150403,175.7565332800614</t>
+          <t>-36.75790831025341,175.756532285882</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-36.75824359451051,175.75571618061733</t>
+          <t>-36.75824255701498,175.75571550564706</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -11691,12 +11691,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-36.757909834196155,175.75653297416005</t>
+          <t>-36.75790687097414,175.75653163584167</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-36.758302093289444,175.7557542385866</t>
+          <t>-36.75830065675754,175.7557533040109</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -11718,12 +11718,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-36.757942852954386,175.75654788685787</t>
+          <t>-36.7579452235318,175.75654895751362</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-36.7583045673166,175.75575584813367</t>
+          <t>-36.758305684619174,175.75575657502594</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -11745,12 +11745,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-36.75794048237696,175.7565468162022</t>
+          <t>-36.75793895843432,175.75654612792357</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-36.75829770388636,175.7557513829388</t>
+          <t>-36.7582969856204,175.755750915651</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -11772,12 +11772,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-36.75792829083569,175.75654130997407</t>
+          <t>-36.75792634357559,175.75654043050724</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-36.75822045037824,175.75570112359284</t>
+          <t>-36.75821949268996,175.75570050054375</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -11799,12 +11799,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-36.75796799800702,175.75655924345995</t>
+          <t>-36.75796511944888,175.75655794337715</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-36.758322683579124,175.7557676341753</t>
+          <t>-36.75832132685466,175.75576675151999</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -11826,12 +11826,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-36.75775396868993,175.75646257876232</t>
+          <t>-36.757756254604885,175.75646361117498</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-36.757957884022446,175.75553030490332</t>
+          <t>-36.75795900132674,175.75553103178876</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -11853,12 +11853,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-36.75770206995084,175.75643913918867</t>
+          <t>-36.757700376680276,175.7564383744397</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-36.757890526525266,175.75548648413326</t>
+          <t>-36.75788972845053,175.7554859649303</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -11880,12 +11880,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36.75782864190537,175.75649630427628</t>
+          <t>-36.757825424692285,175.75649485124816</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-36.758128512284635,175.75564131095376</t>
+          <t>-36.758126916136845,175.75564027254123</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -11907,12 +11907,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-36.757746348973335,175.75645913738725</t>
+          <t>-36.75775117479387,175.7564613169247</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-36.75806690097187,175.75560122826118</t>
+          <t>-36.75806921538676,175.75560273395698</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -11934,12 +11934,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-36.75792592025818,175.7565402393188</t>
+          <t>-36.75792498895987,175.75653981870428</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-36.75827096842941,175.75573398945497</t>
+          <t>-36.75827056939272,175.75573372985082</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -11961,12 +11961,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-36.757934979250734,175.75654433075178</t>
+          <t>-36.757934555933325,175.7565441395633</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-36.758319331671615,175.75576545349756</t>
+          <t>-36.75831909224966,175.75576529773488</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -11988,12 +11988,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-36.75790136784748,175.75652915039356</t>
+          <t>-36.75789975924121,175.75652842387805</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-36.75822060999296,175.75570122743437</t>
+          <t>-36.75821981191939,175.75570070822678</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -12015,12 +12015,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-36.7579159299671,175.75653572727248</t>
+          <t>-36.75791914717951,175.7565371803042</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-36.75829427217117,175.75574915034167</t>
+          <t>-36.75829586831778,175.7557501887589</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -12042,12 +12042,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-36.75780637540374,175.7564862477949</t>
+          <t>-36.757811201223575,175.75648842733597</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-36.75818397841328,175.75567739581814</t>
+          <t>-36.75818629282699,175.75567890151868</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -12069,12 +12069,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-36.75781382579225,175.75648961270053</t>
+          <t>-36.7578165350244,175.75649083630276</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-36.7579004226517,175.75549292225088</t>
+          <t>-36.757901699571214,175.75549375297587</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -12096,12 +12096,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-36.7578835885147,175.75652112048687</t>
+          <t>-36.75788223389885,175.7565205086846</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-36.758146309331714,175.7556528892569</t>
+          <t>-36.75814559106527,175.75565242197104</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -12123,12 +12123,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-36.75786657115264,175.7565134347227</t>
+          <t>-36.757864200574794,175.75651236406927</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-36.75813928628192,175.75564832023977</t>
+          <t>-36.75813816897851,175.75564759335074</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -12150,12 +12150,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-36.75789865861586,175.7565279267885</t>
+          <t>-36.75789992856819,175.75652850035337</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-36.758109837354816,175.75562916152955</t>
+          <t>-36.75811047581398,175.7556295768944</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -12177,12 +12177,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-36.757822376806175,175.75649347469536</t>
+          <t>-36.75782508603828,175.75649469829784</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-36.758066821164455,175.75560117634063</t>
+          <t>-36.758068018275615,175.75560195514882</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -12204,12 +12204,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-36.757872158943236,175.75651595840606</t>
+          <t>-36.757869280384455,175.7565146583267</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-36.75824678680443,175.75571825744902</t>
+          <t>-36.75824543007952,175.75571737479555</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-36.75790450039651,175.75653056518706</t>
+          <t>-36.757903569098154,175.75653014457276</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-36.758232022444666,175.75570865210392</t>
+          <t>-36.75823154360055,175.75570834057928</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12258,12 +12258,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-36.75790619366624,175.75653132994034</t>
+          <t>-36.75790407707907,175.75653037399874</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-36.7581997802719,175.7556876761203</t>
+          <t>-36.75819882258353,175.75568705307154</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-36.757899251260284,175.75652819445207</t>
+          <t>-36.75790043654912,175.75652872977932</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-36.75783820888101,175.7565006251238</t>
+          <t>-36.75783863219852,175.75650081631176</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-36.75809483356392,175.75561940045813</t>
+          <t>-36.758095072986144,175.7556195562199</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -12335,12 +12335,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-36.75789247818118,175.75652513543972</t>
+          <t>-36.75789095423838,175.756524447162</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-36.75820887831121,175.75569359508413</t>
+          <t>-36.75820816004497,175.75569312779746</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -12362,12 +12362,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-36.757864369901775,175.75651244054453</t>
+          <t>-36.75786208398741,175.75651140812877</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-36.758216699432445,175.75569868331735</t>
+          <t>-36.75821558212943,175.75569795642681</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -12389,12 +12389,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-36.75792287237279,175.75653886276217</t>
+          <t>-36.757922110401445,175.75653851862305</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-36.75822619650785,175.7557048618877</t>
+          <t>-36.758225877278434,175.75570465420464</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -12416,12 +12416,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-36.7578939174605,175.7565257854798</t>
+          <t>-36.75789544140329,175.75652647375756</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-36.7582127090645,175.75569608727986</t>
+          <t>-36.758213427330745,175.75569655456658</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -12443,12 +12443,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-36.75790111385702,175.7565290356806</t>
+          <t>-36.757899843904696,175.75652846211568</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-36.75808150572758,175.75561072972246</t>
+          <t>-36.75808094707574,175.75561036627852</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -12470,12 +12470,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-36.75783998681452,175.7565014281133</t>
+          <t>-36.75784388133549,175.75650318704277</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-36.758164425606886,175.75566467524828</t>
+          <t>-36.758166261176555,175.75566586942395</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -12497,12 +12497,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-36.75783820888101,175.7565006251238</t>
+          <t>-36.757835668975986,175.75649947799602</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-36.75820664370511,175.7556921413034</t>
+          <t>-36.75820544659468,175.75569136249234</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -12524,12 +12524,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-36.7579287141531,175.7565415011625</t>
+          <t>-36.75793167737496,175.75654283948168</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-36.75825756079606,175.75572526675734</t>
+          <t>-36.75825891752091,175.75572614941112</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -12551,12 +12551,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-36.75795377454308,175.75655281952245</t>
+          <t>-36.75795157329267,175.75655182534186</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-36.7582651424936,175.75573019923476</t>
+          <t>-36.75826410499816,175.75572952426413</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -12578,12 +12578,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-36.75781992156457,175.75649236580566</t>
+          <t>-36.75781941358355,175.75649213638022</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-36.75814527183574,175.7556522142884</t>
+          <t>-36.75814511222098,175.7556521104471</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -12605,12 +12605,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-36.75791940116996,175.75653729501724</t>
+          <t>-36.75791779256375,175.75653656850136</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-36.75821246964243,175.7556959315176</t>
+          <t>-36.75821167156882,175.75569541231016</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -12632,12 +12632,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-36.75785522624421,175.75650831088194</t>
+          <t>-36.75785683485066,175.75650903739657</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-36.75818310053221,175.75567682469037</t>
+          <t>-36.75818389860592,175.75567734389745</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -12659,12 +12659,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-36.75786140667944,175.75651110222782</t>
+          <t>-36.75785988273652,175.7565104139507</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-36.75826801555784,175.7557320683844</t>
+          <t>-36.75826729729179,175.75573160109698</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -12686,12 +12686,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-36.75784574393246,175.75650402827</t>
+          <t>-36.757841764748,175.75650223110281</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-36.758264184805505,175.75572957618496</t>
+          <t>-36.758262349236645,175.75572838200614</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -12713,12 +12713,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-36.757896542028654,175.7565269708471</t>
+          <t>-36.75789831996192,175.75652777383786</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-36.75823258109613,175.75570901554934</t>
+          <t>-36.75823337916965,175.7557095347571</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-36.757906786310656,175.75653159760398</t>
+          <t>-36.757907463618544,175.75653190350533</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-36.75823633204166,175.75571145582586</t>
+          <t>-36.758236651271076,175.755711663509</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -12767,12 +12767,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-36.75789484875887,175.75652620609398</t>
+          <t>-36.757891546882796,175.75652471482556</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-36.758216460010374,175.7556985275551</t>
+          <t>-36.7582148638632,175.75569748914006</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -12794,12 +12794,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-36.7579448002144,175.75654876632507</t>
+          <t>-36.757942514300474,175.75654773390707</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-36.75831661822267,175.75576368818716</t>
+          <t>-36.75831550092014,175.7557629612947</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -12821,12 +12821,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-36.7579563144474,175.75655396665394</t>
+          <t>-36.75795597579349,175.75655381370308</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-36.75832787105491,175.7557710090341</t>
+          <t>-36.75832771144027,175.75577090519226</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -12848,12 +12848,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-36.75793184670192,175.75654291595708</t>
+          <t>-36.757934979250734,175.75654433075178</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-36.758232261866716,175.75570880786626</t>
+          <t>-36.758233778206424,175.75570979436097</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -12894,12 +12894,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-36.75789197020024,175.7565249060138</t>
+          <t>-36.75789163154629,175.75652475306322</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-36.758236571463726,175.75571161158823</t>
+          <t>-36.75823641184902,175.75571150774667</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -12921,12 +12921,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-36.75790729429157,175.75653182703</t>
+          <t>-36.75791101948496,175.7565335094874</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-36.75819746585834,175.7556861704192</t>
+          <t>-36.75819922162035,175.7556873126752</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -12948,12 +12948,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-36.757738221275474,175.756455466588</t>
+          <t>-36.757741099835144,175.7564567666626</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-36.75810903928086,175.75562864232356</t>
+          <t>-36.75811039600658,175.75562952497378</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -12975,12 +12975,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-36.75800355666475,175.75657530331472</t>
+          <t>-36.75800144007807,175.75657434737053</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-36.75824965986891,175.7557201265977</t>
+          <t>-36.75824862237341,175.75571945162733</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -13002,12 +13002,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-36.757945054204846,175.75654888103819</t>
+          <t>-36.75794454622397,175.75654865161198</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-36.75820488794315,175.75569099904718</t>
+          <t>-36.75820464852105,175.75569084328495</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -13029,12 +13029,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-36.75796952194955,175.7565599317391</t>
+          <t>-36.75797121521902,175.75656069649375</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-36.75836131031903,175.7557927639044</t>
+          <t>-36.75836210839211,175.75579328311397</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -13057,7 +13057,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-36.75854343052056,175.75591124781405</t>
+          <t>-36.75854502666542,175.75591228623827</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -13079,12 +13079,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-36.75790196049189,175.7565294180572</t>
+          <t>-36.75790026722214,175.756528653304</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-36.75829969906959,175.75575268096048</t>
+          <t>-36.7582989009963,175.7557521617518</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -13106,12 +13106,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-36.757895272076325,175.75652639728227</t>
+          <t>-36.75789451010492,175.75652605314338</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-36.75822156768124,175.75570185048346</t>
+          <t>-36.758221248451804,175.75570164280043</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -13152,12 +13152,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-36.757964103487176,175.75655748452442</t>
+          <t>-36.75796224089072,175.75655664329446</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-36.75832978643055,175.75577225513592</t>
+          <t>-36.75832890855004,175.7557716840059</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-36.757851755040825,175.75650674313994</t>
+          <t>-36.757849469126384,175.75650571072455</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-36.75815205546321,175.7556566275443</t>
+          <t>-36.75815093815987,175.75565590065503</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -13206,12 +13206,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-36.75784692922144,175.75650456359642</t>
+          <t>-36.75784633657695,175.7565042959332</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-36.75820800043025,175.75569302395596</t>
+          <t>-36.758207761008165,175.75569286819373</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -13233,12 +13233,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-36.75785251701231,175.7565070872784</t>
+          <t>-36.75785480292672,175.75650811969388</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-36.75809682874895,175.75562069847274</t>
+          <t>-36.75809794605255,175.7556214253609</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -13260,12 +13260,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-36.75788663640038,175.75652249704203</t>
+          <t>-36.75788443514961,175.75652150286328</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-36.75823601281227,175.75571124814275</t>
+          <t>-36.75823497531669,175.75571057317265</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -13287,12 +13287,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-36.75792287237279,175.75653886276217</t>
+          <t>-36.75792558160425,175.7565400863681</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-36.75823960414304,175.75571358457796</t>
+          <t>-36.75824080125328,175.75571436338976</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -13314,12 +13314,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-36.75782127618063,175.75649297760685</t>
+          <t>-36.7578230541142,175.75649378059597</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-36.758134018994426,175.75564489347747</t>
+          <t>-36.758134817068296,175.75564541268386</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -13341,12 +13341,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-36.75790788693598,175.75653209469368</t>
+          <t>-36.757905939675794,175.75653121522734</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-36.758219652304675,175.75570060438525</t>
+          <t>-36.75821869461638,175.7556999813362</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -13368,12 +13368,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-36.75792989944184,175.75654203649017</t>
+          <t>-36.75793286266371,175.75654337480938</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-36.75828262030059,175.7557415698971</t>
+          <t>-36.75828405683262,175.75574250447235</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -13395,12 +13395,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-36.7579058550123,175.75653117698968</t>
+          <t>-36.75790246847282,175.75652964748315</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-36.75823082533438,175.7557078732923</t>
+          <t>-36.758229229187315,175.75570683487692</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -13422,12 +13422,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-36.757897557990525,175.75652742969893</t>
+          <t>-36.757896118711216,175.7565267796588</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-36.758270329970706,175.75573357408834</t>
+          <t>-36.758269691511984,175.7557331587217</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -13449,12 +13449,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-36.7579032304442,175.7565299916221</t>
+          <t>-36.75790450039651,175.75653056518706</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-36.75820784081552,175.75569292011448</t>
+          <t>-36.75820847927441,175.7556933354804</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -13476,12 +13476,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-36.75792973011489,175.7565419600148</t>
+          <t>-36.75792727487391,175.75654085112183</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-36.7583057644265,175.7557566269468</t>
+          <t>-36.75830464712392,175.75575590005454</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -13503,12 +13503,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-36.757909495542215,175.75653282120936</t>
+          <t>-36.75790890289781,175.75653255354567</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-36.758266738640394,175.7557312376512</t>
+          <t>-36.758266419411044,175.75573102996793</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -13527,7 +13527,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-36.75821949268996,175.75570050054375</t>
+          <t>-36.75822100902974,175.75570148703815</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-36.75797578704658,175.75656276133154</t>
+          <t>-36.75797807296034,175.75656379375053</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -13572,12 +13572,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-36.75782618666382,175.7564951953864</t>
+          <t>-36.75782491671127,175.7564946218227</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-36.75809339703071,175.7556184658877</t>
+          <t>-36.75809275857149,175.75561805052305</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-36.75784819917391,175.75650513716047</t>
+          <t>-36.75784709854844,175.75650464007163</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -13622,12 +13622,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-36.757858782111064,175.7565099168617</t>
+          <t>-36.75786047538099,175.75651068161403</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-36.75821430521169,175.75569712569484</t>
+          <t>-36.75821510328528,175.7556976449023</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -13649,12 +13649,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-36.75792033246829,175.75653771563174</t>
+          <t>-36.75791897785255,175.75653710382886</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-36.75822779265495,175.75570590030304</t>
+          <t>-36.758227154196106,175.7557054849369</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -13676,12 +13676,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-36.75782254613318,175.75649355117048</t>
+          <t>-36.7578205142091,175.75649263346867</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-36.75817041116005,175.75566856929956</t>
+          <t>-36.75816945347155,175.75566794625132</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -13703,12 +13703,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-36.75783389104247,175.75649867500664</t>
+          <t>-36.75783524565849,175.75649928680807</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-36.75820536678732,175.7556913105716</t>
+          <t>-36.758206005246215,175.7556917259375</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -13730,12 +13730,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-36.75791068083101,175.75653335653672</t>
+          <t>-36.757913644053005,175.75653469485525</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-36.75818469667961,175.7556778631045</t>
+          <t>-36.758186053404884,175.75567874575657</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -13753,12 +13753,12 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-36.757852855666286,175.75650724022884</t>
+          <t>-36.75785183970433,175.75650678137754</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-36.75808541629043,175.7556132738302</t>
+          <t>-36.75808493744599,175.7556129623068</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -13780,12 +13780,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-36.757844473979986,175.75650345470598</t>
+          <t>-36.75784159542101,175.7565021546276</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-36.758275916484365,175.75573720854655</t>
+          <t>-36.75827455975964,175.75573632589237</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -13807,12 +13807,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-36.75789036159395,175.75652417949848</t>
+          <t>-36.757889430295556,175.75652375888436</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-36.75822140806652,175.75570174664196</t>
+          <t>-36.75822100902974,175.75570148703815</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -13834,12 +13834,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-36.75793311665416,175.75654348952247</t>
+          <t>-36.75793591054903,175.75654475136642</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-36.75822076960767,175.75570133127587</t>
+          <t>-36.758222046525376,175.75570216200802</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -13861,12 +13861,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-36.75791813121771,175.75653672145205</t>
+          <t>-36.75791830054467,175.75653679792742</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-36.7582316234079,175.75570839250005</t>
+          <t>-36.75823170321525,175.75570844442083</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -13888,12 +13888,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-36.75788578976546,175.75652211466556</t>
+          <t>-36.75788443514961,175.75652150286328</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-36.75822851092112,175.75570636758997</t>
+          <t>-36.75822787246229,175.75570595222382</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -13915,12 +13915,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-36.75758133974365,175.75638461267587</t>
+          <t>-36.75758320234179,175.756385453897</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-36.7577965133026,175.75542532210136</t>
+          <t>-36.75779739118517,175.75542589322316</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -13942,12 +13942,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-36.75781467242729,175.7564899950762</t>
+          <t>-36.75781416444627,175.7564897656508</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-36.7580339405088,175.75557978508638</t>
+          <t>-36.758033780893946,175.75557968124537</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -13969,12 +13969,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.75791999381434,175.756537562681</t>
+          <t>-36.757919062516024,175.75653714206652</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-36.75821773692809,175.75569935828713</t>
+          <t>-36.758217258083945,175.75569904676263</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -13996,12 +13996,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-36.75783025051191,175.7564970307904</t>
+          <t>-36.757833806378976,175.75649863676907</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-36.757868419854184,175.75547210221538</t>
+          <t>-36.75787009581128,175.75547319254102</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -14023,12 +14023,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-36.75792151775706,175.75653825095927</t>
+          <t>-36.75792558160425,175.7565400863681</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-36.757964827270406,175.75553482197773</t>
+          <t>-36.75796674264914,175.75553606806739</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -14050,12 +14050,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-36.75783964816051,175.75650127516292</t>
+          <t>-36.75783871686202,175.75650085454936</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-36.75804008568024,175.75558378296495</t>
+          <t>-36.75803960683573,175.75558347144195</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-36.75783914017951,175.75650104573734</t>
+          <t>-36.75783922484301,175.75650108397494</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -14104,12 +14104,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-36.75785641153317,175.7565088462085</t>
+          <t>-36.75785437960924,175.75650792850584</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-36.75821127253203,175.75569515270644</t>
+          <t>-36.75821031484371,175.7556945296575</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -14131,12 +14131,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-36.757909918859646,175.7565330123977</t>
+          <t>-36.757906616983675,175.75653152112866</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-36.75820305237381,175.75568980487026</t>
+          <t>-36.75820153603391,175.75568881837634</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -14158,12 +14158,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-36.75787503750202,175.7565172584855</t>
+          <t>-36.75787283625118,175.7565162643071</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-36.75820959657747,175.75569406237082</t>
+          <t>-36.75820855908179,175.75569338740115</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -14182,7 +14182,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-36.7581482247089,175.75565413535261</t>
+          <t>-36.7581473468277,175.7556535642254</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -14200,7 +14200,7 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-36.75774880421537,175.7564602462747</t>
+          <t>-36.75774787291667,175.7564598256622</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -14223,12 +14223,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-36.757922618382345,175.7565387480491</t>
+          <t>-36.757924226988514,175.7565394745651</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-36.75814982085653,175.7556551737658</t>
+          <t>-36.758150618930344,175.7556556929724</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -14250,12 +14250,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-36.75786809509552,175.75651412299996</t>
+          <t>-36.75787071966385,175.75651530836637</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-36.758126916136845,175.75564027254123</t>
+          <t>-36.758128193055086,175.75564110327127</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -14277,12 +14277,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-36.7579107654945,175.7565333947744</t>
+          <t>-36.757913982706945,175.75653484780594</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-36.75816187177083,175.7556630137866</t>
+          <t>-36.75816346791837,175.75566405220013</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -14304,12 +14304,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-36.75784625191345,175.7565042576956</t>
+          <t>-36.75784481263398,175.75650360765636</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-36.7581609140823,175.7556623907385</t>
+          <t>-36.75816027562328,175.7556619753731</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -14331,12 +14331,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-36.757730770885644,175.75645210168938</t>
+          <t>-36.75773364944536,175.75645340176376</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-36.75805939907514,175.75559634773063</t>
+          <t>-36.75806075580115,175.7555972303797</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -14358,12 +14358,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-36.757842103402005,175.7565023840532</t>
+          <t>-36.75783939417003,175.7565011604501</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-36.758188128396455,175.75568009569506</t>
+          <t>-36.75818685147858,175.75567926496367</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -14385,12 +14385,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-36.75788765236226,175.75652295589376</t>
+          <t>-36.75788545111151,175.756521961715</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-36.75822499939753,175.75570408307624</t>
+          <t>-36.75822396190192,175.75570340810629</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -14412,12 +14412,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-36.757900351885624,175.75652869154163</t>
+          <t>-36.757899420587265,175.7565282709274</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-36.75833289891594,175.75577428005153</t>
+          <t>-36.75833242007204,175.75577396852603</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -14439,12 +14439,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-36.757954536514376,175.7565531636619</t>
+          <t>-36.75795834637083,175.75655488435922</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-36.758235454160804,175.7557108846973</t>
+          <t>-36.75823728972988,175.75571207887526</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -14466,12 +14466,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-36.7579386197804,175.75654597497277</t>
+          <t>-36.757938365789954,175.75654586025968</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-36.75831685764464,175.75576384394984</t>
+          <t>-36.7583167778373,175.75576379202894</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -14493,12 +14493,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-36.75796537343931,175.75655805809032</t>
+          <t>-36.75796249488114,175.75655675800763</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-36.758193315875324,175.7556834705416</t>
+          <t>-36.758191959150096,175.7556825878894</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -14520,12 +14520,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-36.75790788693598,175.75653209469368</t>
+          <t>-36.75790441573303,175.7565305269494</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-36.758185335138556,175.75567827847019</t>
+          <t>-36.75818365918381,175.75567718813528</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -14547,12 +14547,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-36.75785302499328,175.75650731670405</t>
+          <t>-36.75785488759022,175.75650815793148</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-36.75811885559036,175.75563502855846</t>
+          <t>-36.75811973347167,175.75563559968523</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -14574,12 +14574,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-36.75785429494574,175.7565078902682</t>
+          <t>-36.75785192436783,175.75650681961517</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-36.75821127253203,175.75569515270644</t>
+          <t>-36.758210155228994,175.755694425816</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -14601,12 +14601,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.75799856152016,175.75657304728654</t>
+          <t>-36.758002202049276,175.75657469151042</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-36.75821007542164,175.75569437389524</t>
+          <t>-36.75821175137618,175.75569546423088</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -14628,12 +14628,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-36.75806002719366,175.756600807926</t>
+          <t>-36.75805714863614,175.7565995078399</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-36.758294192363834,175.7557490984208</t>
+          <t>-36.75829283563922,175.75574821576618</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -14655,12 +14655,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-36.75793887377085,175.75654608968588</t>
+          <t>-36.75793734982819,175.7565454014073</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-36.75832364126697,175.75576825722612</t>
+          <t>-36.758322923001074,175.755767789938</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -14682,12 +14682,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-36.75781746632295,175.75649125691604</t>
+          <t>-36.75781585771636,175.75649053040217</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-36.758177992860496,175.75567350176541</t>
+          <t>-36.75817719478676,175.75567298255845</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -14709,12 +14709,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-36.7578962033747,175.75652681789643</t>
+          <t>-36.75789721933656,175.7565272767483</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-36.75826538191561,175.75573035499724</t>
+          <t>-36.758265860759664,175.75573066652217</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -14736,12 +14736,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-36.75788883765113,175.7565234912208</t>
+          <t>-36.75789230885421,175.7565250589644</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-36.75820720235664,175.75569250474857</t>
+          <t>-36.75820887831121,175.75569359508413</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -14759,12 +14759,12 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-36.75796622007405,175.75655844046761</t>
+          <t>-36.757967574689644,175.75655905227129</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-36.75824806372198,175.75571908818176</t>
+          <t>-36.7582487819881,175.75571955546894</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -14786,12 +14786,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-36.75794937204226,175.75655083116135</t>
+          <t>-36.75795301257179,175.75655247538302</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-36.75827687417241,175.75573783159658</t>
+          <t>-36.75827855012648,175.75573892193418</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -14813,12 +14813,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-36.75793311665416,175.75654348952247</t>
+          <t>-36.75793049208622,175.756542304154</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-36.75828788758462,175.75574499667312</t>
+          <t>-36.75828661066729,175.75574416593952</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -14840,12 +14840,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-36.757961817573346,175.75655645210583</t>
+          <t>-36.75796173290987,175.7565564138681</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-36.75832627490851,175.75576997061594</t>
+          <t>-36.7583261951012,175.75576991869505</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -14867,12 +14867,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-36.757950726657896,175.75655144296474</t>
+          <t>-36.75795089598484,175.75655151944017</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-36.75833257968666,175.75577407236787</t>
+          <t>-36.75833265949398,175.7557741242888</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -14894,12 +14894,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-36.75787605346392,175.75651771733712</t>
+          <t>-36.75787867803219,175.7565189027038</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-36.758124362300364,175.7556386110812</t>
+          <t>-36.758125639218626,175.7556394418112</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -14921,12 +14921,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-36.75791940116996,175.75653729501724</t>
+          <t>-36.757915760640124,175.7565356507971</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-36.7582210888371,175.7557015389589</t>
+          <t>-36.758219412882596,175.755700448623</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -14948,12 +14948,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-36.75794259896396,175.75654777214476</t>
+          <t>-36.757946239493556,175.7565494163661</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-36.75827583667702,175.7557371566257</t>
+          <t>-36.75827751263111,175.7557382469633</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -14975,12 +14975,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-36.75786538586372,175.756512899396</t>
+          <t>-36.75786276129537,175.75651171402973</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-36.75816243042248,175.75566337723131</t>
+          <t>-36.75816115350443,175.75566254650053</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -15002,12 +15002,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.75788316519725,175.75652092929866</t>
+          <t>-36.75788502779405,175.75652177052677</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-36.75820536678732,175.7556913105716</t>
+          <t>-36.7582062446683,175.7556918816997</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -15029,12 +15029,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-36.75782415473975,175.75649427768448</t>
+          <t>-36.757827117962336,175.7564956159998</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-36.75805085968172,175.75559079223427</t>
+          <t>-36.758052296215226,175.75559172680363</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -15056,12 +15056,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-36.757779198417246,175.7564739735427</t>
+          <t>-36.75777623519432,175.75647263522916</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-36.75811534406506,175.75563274405147</t>
+          <t>-36.758113987339364,175.75563186140107</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -15083,12 +15083,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-36.75792380367111,175.7565392833767</t>
+          <t>-36.757922364391895,175.75653863333608</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-36.758285812593954,175.75574364673102</t>
+          <t>-36.758285174135295,175.7557432313642</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -15110,12 +15110,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-36.75774982017758,175.7564607051247</t>
+          <t>-36.757753376045315,175.7564623110998</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-36.75793442063115,175.75551504031324</t>
+          <t>-36.75793617639521,175.75551618256117</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -15137,12 +15137,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-36.757875884136936,175.75651764086186</t>
+          <t>-36.75787393687659,175.75651676139628</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-36.758217337891296,175.75569909868338</t>
+          <t>-36.75821638020302,175.75569847563435</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -15164,12 +15164,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-36.75788316519725,175.75652092929866</t>
+          <t>-36.757880201975034,175.75651959098127</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-36.75819938123509,175.75568741651665</t>
+          <t>-36.75819794470252,175.75568648194354</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -15191,12 +15191,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-36.757936587856875,175.756545057268</t>
+          <t>-36.75794056704044,175.75654685443988</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-36.75830153463816,175.7557538751405</t>
+          <t>-36.75830345001401,175.75575512124144</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -15218,12 +15218,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-36.757885535774996,175.75652199995264</t>
+          <t>-36.75788333452424,175.75652100577392</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-36.75828405683262,175.75574250447235</t>
+          <t>-36.758283019337256,175.75574182950135</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -15245,12 +15245,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-36.757857512158616,175.7565093432975</t>
+          <t>-36.75785844345708,175.75650976391125</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-36.75816602175442,175.7556657136619</t>
+          <t>-36.7581664207913,175.7556659732653</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -15272,12 +15272,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-36.757939974396095,175.75654658677595</t>
+          <t>-36.75794149833872,175.75654727505463</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-36.75829347409786,175.75574863113306</t>
+          <t>-36.758294192363834,175.7557490984208</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -15299,12 +15299,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-36.75791838520815,175.7565368361651</t>
+          <t>-36.75792050179525,175.75653779210708</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-36.75827463956697,175.7557363778132</t>
+          <t>-36.75827559725502,175.7557370008632</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -15326,12 +15326,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-36.75786039071749,175.75651064337643</t>
+          <t>-36.757860983361965,175.75651091103973</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-36.758193315875324,175.7556834705416</t>
+          <t>-36.758193555297446,175.75568362630378</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -15380,12 +15380,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.75785404095525,175.75650777555538</t>
+          <t>-36.75785683485066,175.75650903739657</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-36.75813737090466,175.75564707414432</t>
+          <t>-36.75813872763022,175.75564795679526</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -15404,7 +15404,7 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-36.75839067940614,175.75581187082335</t>
+          <t>-36.758389083260205,175.75581083240345</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -15426,12 +15426,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-36.75785167037733,175.75650670490234</t>
+          <t>-36.7578492151359,175.75650559601172</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-36.75805860100099,175.75559582852532</t>
+          <t>-36.7580574836972,175.75559510163785</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -15453,12 +15453,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-36.757855141580706,175.7565082726443</t>
+          <t>-36.757857427495125,175.75650930505986</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-36.758115822909424,175.75563305557512</t>
+          <t>-36.75811694021293,175.7556337824637</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -15480,12 +15480,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-36.75785107773286,175.75650643723907</t>
+          <t>-36.757848707154906,175.7565053665861</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-36.758154768914125,175.7556583928469</t>
+          <t>-36.758153651610826,175.75565766595759</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -15507,12 +15507,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-36.757856157542676,175.75650873149567</t>
+          <t>-36.75785776614911,175.75650945801033</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-36.75815349199606,175.75565756211623</t>
+          <t>-36.758154290069854,175.75565808132288</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -15534,12 +15534,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-36.75788240322583,175.75652058515988</t>
+          <t>-36.757880201975034,175.75651959098127</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-36.758216619625074,175.7556986313966</t>
+          <t>-36.75821558212943,175.75569795642681</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -15561,12 +15561,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-36.757711552265796,175.75644342178364</t>
+          <t>-36.75770858904238,175.7564420834726</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-36.75801949536487,175.75557038747823</t>
+          <t>-36.75801805883118,175.75556945290967</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -15584,12 +15584,12 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-36.757812471176166,175.75648900089945</t>
+          <t>-36.75781416444627,175.7564897656508</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-36.758263466539425,175.75572910889758</t>
+          <t>-36.75826426461283,175.75572962810574</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -15607,12 +15607,12 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-36.7578939174605,175.7565257854798</t>
+          <t>-36.75789197020024,175.7565249060138</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-36.7582313041785,175.75570818481694</t>
+          <t>-36.75823034649026,175.75570756176768</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -15634,12 +15634,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-36.75790196049189,175.7565294180572</t>
+          <t>-36.75790390775211,175.75653029752343</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-36.75827048958537,175.75573367792998</t>
+          <t>-36.758271447273444,175.75573430097995</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -15661,12 +15661,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-36.75791660727498,175.7565360331739</t>
+          <t>-36.757912882081634,175.7565343507162</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-36.758199620657166,175.75568757227884</t>
+          <t>-36.75819786489515,175.75568643002282</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -15688,12 +15688,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-36.75792490429638,175.75653978046657</t>
+          <t>-36.75792795218177,175.75654115702332</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-36.75823896568424,175.7557131692117</t>
+          <t>-36.75824040221654,175.7557141037858</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -15712,7 +15712,7 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-36.75816817655356,175.75566711552034</t>
+          <t>-36.75816985250843,175.75566820585476</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -15734,12 +15734,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-36.757894171450964,175.75652590019277</t>
+          <t>-36.757895780057254,175.75652662670817</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-36.75824223778557,175.75571529796392</t>
+          <t>-36.75824303585905,175.75571581717182</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -15757,12 +15757,12 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-36.75787673077187,175.7565180232382</t>
+          <t>-36.7578774080798,175.75651832913925</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-36.75819132069117,175.75568217252365</t>
+          <t>-36.758191719727996,175.75568243212723</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -15784,12 +15784,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-36.75795199661005,175.75655201653043</t>
+          <t>-36.75795479050482,175.75655327837504</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-36.758254607924336,175.75572334568747</t>
+          <t>-36.758255964649194,175.75572422834117</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -15811,12 +15811,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-36.75796774401659,175.75655912874674</t>
+          <t>-36.757970791901656,175.7565605053051</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-36.758273282842225,175.75573549515906</t>
+          <t>-36.7582747193743,175.75573642973401</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -15838,12 +15838,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-36.75788045596552,175.7565197056942</t>
+          <t>-36.75787749274329,175.75651836737688</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-36.75820855908179,175.75569338740115</t>
+          <t>-36.75820720235664,175.75569250474857</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -15865,12 +15865,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-36.757921179103136,175.75653809800852</t>
+          <t>-36.757925242950314,175.75653993341734</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-36.75820105718973,175.75568850685198</t>
+          <t>-36.758202972566444,175.75568975294954</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -15888,12 +15888,12 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-36.75787681543536,175.75651806147582</t>
+          <t>-36.7578751221655,175.75651729672313</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-36.75822930899466,175.75570688679764</t>
+          <t>-36.75822851092112,175.75570636758997</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-36.7582536524734,175.75668825807202</t>
+          <t>-36.75825077391719,175.75668695797899</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -15938,12 +15938,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-36.75795707641869,175.7565543107934</t>
+          <t>-36.75796122492901,175.75655618444176</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-36.75828142319056,175.75574079108446</t>
+          <t>-36.75828341837394,175.75574208910558</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -15965,12 +15965,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-36.757954536514376,175.7565531636619</t>
+          <t>-36.75795487516828,175.75655331661275</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-36.75824598873095,175.7557177382411</t>
+          <t>-36.75824614834564,175.75571784208267</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -15992,12 +15992,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-36.757856580860164,175.75650892268374</t>
+          <t>-36.757856157542676,175.75650873149567</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-36.75817966881529,175.75567459210012</t>
+          <t>-36.75817942939317,175.755674436338</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -16019,12 +16019,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-36.7579170305924,175.75653622436226</t>
+          <t>-36.757913305399065,175.75653454190456</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-36.75835157382737,175.75578642954872</t>
+          <t>-36.75834981806653,175.75578528728803</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -16046,12 +16046,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-36.75785243234881,175.7565070490408</t>
+          <t>-36.75785598821569,175.75650865502044</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-36.7580134300003,175.7555664415223</t>
+          <t>-36.75801510595633,175.75556753185217</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -16073,12 +16073,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-36.75783829354451,175.75650066336138</t>
+          <t>-36.75783558431249,175.75649943975844</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-36.75808062784611,175.75561015859626</t>
+          <t>-36.75807935092761,175.75560932786726</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -16100,12 +16100,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-36.75779765506246,175.75648230932666</t>
+          <t>-36.757795792465274,175.75648146810056</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-36.75810137777072,175.75562365794627</t>
+          <t>-36.75810049988934,175.75562308681975</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -16127,12 +16127,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-36.757858528120586,175.75650980214886</t>
+          <t>-36.75785793547611,175.75650953448553</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-36.7581023354595,175.75562428099337</t>
+          <t>-36.758102016229905,175.75562407331097</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -16154,12 +16154,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-36.75797129988249,175.75656073473152</t>
+          <t>-36.757968421324385,175.75655943464858</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-36.75832284319377,175.75576773801708</t>
+          <t>-36.758321486469306,175.7557668553618</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -16181,12 +16181,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-36.75774169247979,175.75645703432508</t>
+          <t>-36.7577461796463,175.75645906091225</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-36.757937533121975,175.7555170652073</t>
+          <t>-36.75793968792329,175.75551846705713</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -16208,12 +16208,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-36.75792905280702,175.75654165411328</t>
+          <t>-36.75793184670192,175.75654291595708</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-36.758218215772246,175.75569966981166</t>
+          <t>-36.75821957249732,175.7557005524645</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -16235,12 +16235,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-36.75790069053957,175.75652884449227</t>
+          <t>-36.757901452510964,175.75652918863122</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-36.75813896705236,175.7556481125572</t>
+          <t>-36.7581393660893,175.7556483721604</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -16262,12 +16262,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-36.75789637270167,175.75652689437175</t>
+          <t>-36.757899251260284,175.75652819445207</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-36.75807927112021,175.75560927594674</t>
+          <t>-36.75808062784611,175.75561015859626</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -16289,12 +16289,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-36.75792033246829,175.75653771563174</t>
+          <t>-36.75792465030593,175.75653966575354</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-36.75820369083271,175.75569022023615</t>
+          <t>-36.758205686016765,175.75569151825454</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -16316,12 +16316,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-36.7579605476212,175.75655587853998</t>
+          <t>-36.757964611468026,175.75655771395077</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-36.758244153161954,175.75571654406286</t>
+          <t>-36.7582460685383,175.7557177901619</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -16343,12 +16343,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-36.75780595208621,175.7564860566071</t>
+          <t>-36.75780408948905,175.7564852153808</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-36.75811119408055,175.75563004417984</t>
+          <t>-36.7581103161992,175.75562947305318</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -16370,12 +16370,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-36.757878085387745,175.75651863504035</t>
+          <t>-36.75787715408932,175.75651821442636</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-36.75822412151661,175.75570351194781</t>
+          <t>-36.75822364267248,175.75570320042326</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -16397,12 +16397,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-36.75794700146486,175.7565497605055</t>
+          <t>-36.75794776343617,175.75655010464487</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-36.758248861795444,175.75571960738975</t>
+          <t>-36.75824926083218,175.7557198669937</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -16424,12 +16424,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-36.75786987302892,175.7565149259901</t>
+          <t>-36.757866994470106,175.7565136259108</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-36.758280944346545,175.75574047955942</t>
+          <t>-36.75827958762185,175.7557395969051</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -16451,12 +16451,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-36.75787410620358,175.75651683787154</t>
+          <t>-36.757878085387745,175.75651863504035</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-36.758128272862486,175.75564115519188</t>
+          <t>-36.758130188239804,175.75564240128702</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -16478,12 +16478,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-36.7578553109077,175.75650834911954</t>
+          <t>-36.75785226302182,175.7565069725656</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-36.75819770528043,175.75568632618138</t>
+          <t>-36.75819626874787,175.75568539160832</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -16505,12 +16505,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-36.7578580201396,175.75650957272316</t>
+          <t>-36.75785988273652,175.7565104139507</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-36.758205925438865,175.75569167401676</t>
+          <t>-36.75820680331982,175.75569224514487</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -16532,12 +16532,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-36.7578845198131,175.7565215411009</t>
+          <t>-36.75788189524487,175.75652035573404</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-36.75823090514173,175.75570792521307</t>
+          <t>-36.75822962822407,175.75570709448075</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -16559,12 +16559,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-36.75795377454308,175.75655281952245</t>
+          <t>-36.75795572180306,175.75655369898993</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-36.75830999421479,175.75575937875345</t>
+          <t>-36.758310951902665,175.75576000180408</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -16586,12 +16586,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-36.75788892231462,175.75652352945846</t>
+          <t>-36.757892139527236,175.7565249824891</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-36.75824335508845,175.75571602485496</t>
+          <t>-36.75824495123542,175.7557170632708</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -16613,7 +16613,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-36.757904839050454,175.7565307181377</t>
+          <t>-36.75790196049189,175.7565294180572</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -16636,12 +16636,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-36.75792194107447,175.75653844214767</t>
+          <t>-36.757923295690205,175.7565390539506</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-36.758245270464826,175.75571727095397</t>
+          <t>-36.758245908923605,175.7557176863203</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -16663,12 +16663,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-36.75796241021767,175.75655671976992</t>
+          <t>-36.75796698204533,175.75655878460717</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-36.758314224002966,175.75576213056044</t>
+          <t>-36.75831637880069,175.75576353242448</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -16690,12 +16690,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-36.75789324015258,175.75652547957858</t>
+          <t>-36.75789400212398,175.75652582371742</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-36.7582487819881,175.75571955546894</t>
+          <t>-36.75824918102484,175.75571981507295</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -16717,12 +16717,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-36.75760436822902,175.75639501323093</t>
+          <t>-36.75760529952804,175.75639543384176</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-36.758099701815354,175.75562256761384</t>
+          <t>-36.75810010085234,175.7556228272168</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -16744,12 +16744,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-36.757859544082535,175.75651026100024</t>
+          <t>-36.75786030605399,175.7565106051388</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-36.75823098494908,175.75570797713385</t>
+          <t>-36.758231383985844,175.75570823673772</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -16771,12 +16771,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-36.757919485833455,175.7565373332549</t>
+          <t>-36.75791753857332,175.7565364537883</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-36.758227393618164,175.7557056406992</t>
+          <t>-36.758226435929906,175.75570501765</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -16798,7 +16798,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-36.75786580918118,175.7565130905841</t>
+          <t>-36.757863184612845,175.75651190521782</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-36.7579101728501,175.75653312711074</t>
+          <t>-36.75791169679283,175.7565338153888</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -16844,12 +16844,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-36.757919909150864,175.75653752444333</t>
+          <t>-36.757921687084036,175.75653832743464</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-36.75827168669545,175.75573445674243</t>
+          <t>-36.75827248476883,175.75573497595073</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -16871,12 +16871,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-36.75794861007095,175.75655048702197</t>
+          <t>-36.757950726657896,175.75655144296474</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-36.75818445725749,175.7556777073424</t>
+          <t>-36.758185414945935,175.75567833039088</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -16898,12 +16898,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-36.7580156635404,175.7565807713165</t>
+          <t>-36.75801244632871,175.75657931828087</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-36.75831151055395,175.75576036525027</t>
+          <t>-36.75830999421479,175.75575937875345</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -16925,12 +16925,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-36.75795284324483,175.7565523989076</t>
+          <t>-36.75795589113002,175.75655377546536</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-36.75826769632848,175.7557318607011</t>
+          <t>-36.75826913286061,175.75573279527595</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -16952,12 +16952,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-36.75799161911571,175.75656991179028</t>
+          <t>-36.75799534430834,175.75657159425162</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-36.75824183874882,175.75571503835997</t>
+          <t>-36.75824359451051,175.75571618061733</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -16979,12 +16979,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-36.75792888348007,175.75654157763788</t>
+          <t>-36.75792651290256,175.75654050698262</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-36.758262030007266,175.75572817432285</t>
+          <t>-36.75826091270448,175.75572744743147</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-36.757864200574794,175.75651236406927</t>
+          <t>-36.757864285238284,175.7565124023069</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -17033,12 +17033,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-36.757952504590925,175.7565522459567</t>
+          <t>-36.75795216593702,175.75655209300587</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-36.758262349236645,175.75572838200614</t>
+          <t>-36.75826218962195,175.7557282781645</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -17060,12 +17060,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-36.757894425441435,175.75652601490572</t>
+          <t>-36.75789163154629,175.75652475306322</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-36.75834295463766,175.75578082208773</t>
+          <t>-36.758341677720644,175.75577999135288</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-36.75793286266371,175.75654337480938</t>
+          <t>-36.75793675718383,175.7565451337434</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -17110,12 +17110,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-36.75796791334354,175.7565592052222</t>
+          <t>-36.75796537343931,175.75655805809032</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-36.75829866157431,175.7557520059892</t>
+          <t>-36.75829746446438,175.7557512271762</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -17137,12 +17137,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-36.75790043654912,175.75652872977932</t>
+          <t>-36.757903484434664,175.7565301063351</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-36.758227154196106,175.7557054849369</t>
+          <t>-36.75822859072848,175.75570641951074</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -17164,12 +17164,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-36.75785344831077,175.7565075078921</t>
+          <t>-36.75785073907885,175.75650628428866</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-36.75818477648698,175.75567791502522</t>
+          <t>-36.75818357937643,175.7556771362146</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -17191,12 +17191,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-36.757948694734424,175.75655052525966</t>
+          <t>-36.75794742478226,175.756549951694</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-36.758311909590574,175.7557606248547</t>
+          <t>-36.75831127113197,175.75576020948762</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -17218,12 +17218,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-36.757897473327034,175.75652739146128</t>
+          <t>-36.75789874327935,175.75652796502612</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-36.75826649921838,175.75573108188874</t>
+          <t>-36.75826705786977,175.7557314453345</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -17245,12 +17245,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-36.75793396328896,175.75654387189942</t>
+          <t>-36.75793684184731,175.7565451719811</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-36.75826570114498,175.75573056268053</t>
+          <t>-36.75826705786977,175.7557314453345</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-36.75788587442896,175.75652215290322</t>
+          <t>-36.75788367317819,175.7565211587245</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-36.7582313041785,175.75570818481694</t>
+          <t>-36.75823026668291,175.75570750984693</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -17299,12 +17299,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-36.75793430194289,175.7565440248502</t>
+          <t>-36.75793184670192,175.75654291595708</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-36.75826785594317,175.75573196454275</t>
+          <t>-36.758266658833065,175.7557311857304</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -17326,12 +17326,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-36.75787698476234,175.75651813795108</t>
+          <t>-36.75788011731155,175.7565195527436</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-36.758237130115184,175.75571197503368</t>
+          <t>-36.75823864645484,175.75571296152856</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-36.75793929708824,175.75654628087437</t>
+          <t>-36.75793921242476,175.75654624263666</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
@@ -17376,12 +17376,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-36.75793362463504,175.75654371894865</t>
+          <t>-36.75793447126985,175.75654410132557</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-36.758236651271076,175.755711663509</t>
+          <t>-36.75823705030783,175.75571192311293</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -17403,12 +17403,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-36.75800169406847,175.75657446208382</t>
+          <t>-36.75800482661676,175.75657587688124</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-36.758352132478535,175.7557867929953</t>
+          <t>-36.758353648817426,175.75578777949323</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -17430,12 +17430,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-36.75799221175998,175.75657017945457</t>
+          <t>-36.75798933320201,175.75656887937092</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-36.758345189242426,175.75578227587377</t>
+          <t>-36.75834383251811,175.75578139321794</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -17457,12 +17457,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-36.75798340675907,175.7565662027284</t>
+          <t>-36.757984592047656,175.75656673805688</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-36.758374478524324,175.75580133086348</t>
+          <t>-36.75837503717543,175.7558016943103</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -17485,7 +17485,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-36.758430343629136,175.75583767557214</t>
+          <t>-36.758429146519894,175.7558368967564</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -17507,12 +17507,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-36.75794234497351,175.75654765743164</t>
+          <t>-36.7579420063196,175.75654750448084</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-36.75836282665787,175.75579375040255</t>
+          <t>-36.75836266704326,175.75579364656065</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -17534,12 +17534,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-36.757949964686595,175.75655109882533</t>
+          <t>-36.75795030334051,175.7565512517762</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-36.758302093289444,175.7557542385866</t>
+          <t>-36.7583022529041,175.75575434242833</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -17561,12 +17561,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-36.757785378853605,175.75647676488273</t>
+          <t>-36.75778461688199,175.75647642074492</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-36.75818397841328,175.75567739581814</t>
+          <t>-36.75818365918381,175.75567718813528</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-36.75795622978392,175.75655392841625</t>
+          <t>-36.75795309723527,175.7565525136207</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-36.7582803856952,175.75574011611351</t>
+          <t>-36.75827886935583,175.75573912961752</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -17615,12 +17615,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-36.75778935803857,175.7564785620471</t>
+          <t>-36.75779181328035,175.75647967093587</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-36.75811837674599,175.75563471703475</t>
+          <t>-36.758119573856895,175.755635495844</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -17642,12 +17642,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-36.758007281857296,175.7565769857766</t>
+          <t>-36.75800414930902,175.7565755709791</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-36.75832962681592,175.7557721512941</t>
+          <t>-36.75832811047686,175.7557711647968</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -17669,12 +17669,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-36.75790416174256,175.7565304122364</t>
+          <t>-36.75790695563763,175.75653167407933</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-36.75819906200562,175.75568720883373</t>
+          <t>-36.758200418730816,175.75568809148612</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -17696,12 +17696,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-36.7579633415159,175.75655714038487</t>
+          <t>-36.75796046295774,175.75655584030227</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-36.7581975456657,175.75568622233993</t>
+          <t>-36.7581961889405,175.75568533968757</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -17723,12 +17723,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-36.75789205486374,175.75652494425145</t>
+          <t>-36.757889853613,175.75652395007256</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-36.758223802287205,175.75570330426478</t>
+          <t>-36.75822276479157,175.75570262929486</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -17750,12 +17750,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-36.75785768148562,175.7565094197727</t>
+          <t>-36.75785564956169,175.75650850206998</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-36.75819012358066,175.7556813937129</t>
+          <t>-36.75818916589225,175.75568077066433</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -17777,12 +17777,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-36.75793057674971,175.7565423423917</t>
+          <t>-36.757932439346305,175.75654318362092</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-36.75832563644996,175.75576955524872</t>
+          <t>-36.758326514330484,175.75577012637868</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -17804,12 +17804,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-36.75788409649566,175.7565213499127</t>
+          <t>-36.75788282654328,175.75652077634808</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-36.7582252388196,175.75570423883852</t>
+          <t>-36.75822460036075,175.7557038234724</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -17831,12 +17831,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-36.757909495542215,175.75653282120936</t>
+          <t>-36.75791101948496,175.7565335094874</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-36.758260034823714,175.7557268763025</t>
+          <t>-36.7582607530898,175.75572734358983</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -17858,12 +17858,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-36.75800838248236,175.75657748286764</t>
+          <t>-36.75800795916503,175.75657729167878</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-36.75830097598685,175.7557535116944</t>
+          <t>-36.75830073656487,175.75575335593177</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -17885,12 +17885,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-36.75795114997528,175.7565516341533</t>
+          <t>-36.757953859206566,175.75655285776017</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-36.75827168669545,175.75573445674243</t>
+          <t>-36.758272883805525,175.75573523555488</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -17912,7 +17912,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-36.757873428895635,175.7565165319705</t>
+          <t>-36.757872074279746,175.75651592016843</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
@@ -17935,12 +17935,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-36.75785158571384,175.75650666666473</t>
+          <t>-36.7578497231169,175.7565058254374</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-36.75815317276654,175.75565735443357</t>
+          <t>-36.75815229488535,175.75565678330628</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -17962,12 +17962,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-36.75785683485066,175.75650903739657</t>
+          <t>-36.75785353297427,175.7565075461297</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-36.75811821713121,175.75563461319354</t>
+          <t>-36.75811670079074,175.75563362670187</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -17989,12 +17989,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-36.757885112457544,175.7565218087644</t>
+          <t>-36.75788824500669,175.75652322355728</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-36.75817847170471,175.7556738132896</t>
+          <t>-36.758179988044766,175.75567479978292</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -18035,12 +18035,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-36.75796986060345,175.75656008469002</t>
+          <t>-36.75796774401659,175.75655912874674</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-36.7583371287037,175.7557770318602</t>
+          <t>-36.758336171015905,175.75577640880914</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -18062,12 +18062,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-36.757904923713944,175.75653075637538</t>
+          <t>-36.757903484434664,175.7565301063351</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-36.75822515901224,175.75570418691777</t>
+          <t>-36.75822452055339,175.75570377155165</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -18089,7 +18089,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-36.75801481690574,175.7565803889387</t>
+          <t>-36.758011599694065,175.7565789359031</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
@@ -18112,12 +18112,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-36.75795360521614,175.75655274304702</t>
+          <t>-36.75795800771692,175.75655473140833</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-36.758220849415025,175.75570138319665</t>
+          <t>-36.75822292440628,175.7557027331364</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -18139,12 +18139,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-36.75792592025818,175.7565402393188</t>
+          <t>-36.75792710554693,175.75654077464645</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-36.758272085732145,175.75573471634658</t>
+          <t>-36.75827264438352,175.7557350797924</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -18166,12 +18166,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-36.75789374813351,175.7565257090045</t>
+          <t>-36.7578947640954,175.75652616785632</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-36.75824335508845,175.75571602485496</t>
+          <t>-36.758243833932546,175.7557163363797</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -18193,12 +18193,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-36.75790568568532,175.75653110051437</t>
+          <t>-36.757907463618544,175.75653190350533</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-36.75828277991526,175.7557416737388</t>
+          <t>-36.75828357798861,175.75574219294728</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -18220,12 +18220,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-36.757922618382345,175.7565387480491</t>
+          <t>-36.75792041713177,175.7565377538694</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-36.758227553232864,175.75570574454076</t>
+          <t>-36.758226515737256,175.75570506957075</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -18247,12 +18247,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-36.75794107502133,175.7565470838661</t>
+          <t>-36.75794539285876,175.75654903398905</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-36.7583100740221,175.75575943067437</t>
+          <t>-36.75831206920522,175.75576072869646</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -18274,12 +18274,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-36.7578796093306,175.7565193233178</t>
+          <t>-36.757878254714726,175.7565187115156</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-36.758386529426666,175.7558091709317</t>
+          <t>-36.758385811160984,175.7558087036428</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -18301,12 +18301,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-36.75797815762382,175.75656383198827</t>
+          <t>-36.75797875026812,175.75656409965245</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-36.75836170935557,175.75579302350917</t>
+          <t>-36.75836194877749,175.75579317927202</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -18328,12 +18328,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-36.75795123463877,175.75655167239103</t>
+          <t>-36.75795157329267,175.75655182534186</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-36.75834790269106,175.75578404118554</t>
+          <t>-36.75834806230568,175.75578414502743</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -18355,12 +18355,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-36.757803581508014,175.75648498595547</t>
+          <t>-36.757800279631226,175.7564834946908</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-36.75811287003584,175.75563113451256</t>
+          <t>-36.75811135369534,175.75563014802105</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -18382,12 +18382,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-36.75789281683514,175.75652528839032</t>
+          <t>-36.757896034047725,175.7565267414211</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-36.758204010062165,175.7556904279191</t>
+          <t>-36.75820552640203,175.75569141441306</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -18409,12 +18409,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-36.75788324986074,175.7565209675363</t>
+          <t>-36.75788104860996,175.75651997335765</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-36.758204568713694,175.75569079136423</t>
+          <t>-36.75820353121798,175.75569011639467</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -18436,12 +18436,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-36.757803835498535,175.75648510066813</t>
+          <t>-36.75780747602932,175.75648674488318</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-36.75809331722331,175.75561841396708</t>
+          <t>-36.75809499317872,175.7556195042993</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -18463,12 +18463,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-36.75786597850818,175.75651316705932</t>
+          <t>-36.75786563985419,175.75651301410886</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-36.75824096086798,175.75571446723131</t>
+          <t>-36.75824080125328,175.75571436338976</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -18490,12 +18490,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-36.7578580201396,175.75650957272316</t>
+          <t>-36.757857427495125,175.75650930505986</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-36.75815029970082,175.75565548528974</t>
+          <t>-36.7581499804713,175.7556552776071</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -18517,12 +18517,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-36.75785895143805,175.75650999333695</t>
+          <t>-36.75786047538099,175.75651068161403</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-36.758116221946395,175.7556333151782</t>
+          <t>-36.75811694021293,175.7556337824637</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -18544,12 +18544,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-36.75791051150403,175.7565332800614</t>
+          <t>-36.75790881823432,175.756532515308</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-36.758120052701244,175.7556358073677</t>
+          <t>-36.75811925462732,175.75563528816153</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -18571,12 +18571,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-36.7578294038769,175.75649664841453</t>
+          <t>-36.75782872656888,175.75649634251388</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-36.75810919889566,175.75562874616475</t>
+          <t>-36.75810887966607,175.75562853848234</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -18598,12 +18598,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-36.75781382579225,175.75648961270053</t>
+          <t>-36.7578113705506,175.75648850381108</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-36.75819068223222,175.7556817571579</t>
+          <t>-36.75818948512172,175.75568097834716</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -18625,12 +18625,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-36.75793116939408,175.75654261005556</t>
+          <t>-36.75793167737496,175.75654283948168</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-36.75824670699707,175.75571820552824</t>
+          <t>-36.75824694641913,175.75571836129063</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -18671,12 +18671,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-36.75794649348397,175.75654953107923</t>
+          <t>-36.75794750944572,175.75654998993173</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-36.7583022529041,175.75575434242833</t>
+          <t>-36.758302731748074,175.75575465395355</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -18698,12 +18698,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-36.757913898043455,175.75653480956828</t>
+          <t>-36.75791652261149,175.7565359949362</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-36.75816107369706,175.75566249457984</t>
+          <t>-36.758162350615095,175.75566332531065</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -18725,12 +18725,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-36.75786547052721,175.7565129376336</t>
+          <t>-36.75786208398741,175.75651140812877</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-36.75819674759206,175.75568570313268</t>
+          <t>-36.758195151444745,175.7556846647182</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -18752,12 +18752,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-36.75781382579225,175.75648961270053</t>
+          <t>-36.75781509574481,175.75649018626405</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-36.75815397084034,175.75565787364022</t>
+          <t>-36.75815460929938,175.75565828900554</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -18779,12 +18779,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-36.75791931650648,175.75653725677958</t>
+          <t>-36.75791694592891,175.75653618612458</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-36.7582651424936,175.75573019923476</t>
+          <t>-36.75826402519082,175.7557294723433</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -18806,12 +18806,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-36.75790517770441,175.75653087108836</t>
+          <t>-36.75790280712677,175.7565298004338</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-36.758271128044086,175.7557340932966</t>
+          <t>-36.75827001074134,175.75573336640502</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-36.75766363270769,175.75642177939562</t>
+          <t>-36.757668373865606,175.75642392069068</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
@@ -18856,12 +18856,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-36.75779850169754,175.7564826917022</t>
+          <t>-36.75779621578282,175.7564816592883</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-36.75808206437942,175.75561109316638</t>
+          <t>-36.75808094707574,175.75561036627852</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -18883,12 +18883,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-36.757841764748,175.75650223110281</t>
+          <t>-36.75783939417003,175.7565011604501</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-36.75809882393394,175.7556219964874</t>
+          <t>-36.758097706630345,175.75562126959917</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -18910,12 +18910,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-36.75772907761521,175.7564513369398</t>
+          <t>-36.757728908288165,175.75645126046484</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-36.75789220248219,175.75548757445952</t>
+          <t>-36.757892122674725,175.7554875225392</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -18937,12 +18937,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-36.757798247707015,175.75648257698953</t>
+          <t>-36.75779816304351,175.75648253875198</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-36.758112710421045,175.75563103067137</t>
+          <t>-36.75811263061365,175.75563097875076</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -18964,12 +18964,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-36.757807391365816,175.75648670664563</t>
+          <t>-36.75780891530893,175.75648739492172</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-36.757954212879746,175.75552791656543</t>
+          <t>-36.7579549311468,175.7555283838489</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -18991,12 +18991,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-36.757753376045315,175.7564623110998</t>
+          <t>-36.757754984652145,175.7564630376124</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-36.7578792736713,175.75547916337254</t>
+          <t>-36.75788007174607,175.75547968257538</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -19014,7 +19014,7 @@
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-36.757939381751726,175.75654631911206</t>
+          <t>-36.75793734982819,175.7565454014073</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
@@ -19037,12 +19037,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-36.757889260968575,175.75652368240904</t>
+          <t>-36.7578881603432,175.75652318531962</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-36.75812380364864,175.75563824763685</t>
+          <t>-36.75812332480429,175.7556379361131</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-36.75761088732207,175.7563979575069</t>
+          <t>-36.757612665256524,175.75639876049135</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
@@ -19087,12 +19087,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-36.757758794510366,175.75646475830024</t>
+          <t>-36.75776201172398,175.7564662113257</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>-36.75800129927067,175.75555854961237</t>
+          <t>-36.75800281561191,175.75555953610098</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -19110,7 +19110,7 @@
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-36.75772078058998,175.75644758966732</t>
+          <t>-36.757719679964154,175.75644709258023</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
@@ -19133,12 +19133,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-36.757889430295556,175.75652375888436</t>
+          <t>-36.75788680572736,175.7565225735173</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-36.758217337891296,175.75569909868338</t>
+          <t>-36.75821606097358,175.75569826795132</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -19160,12 +19160,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-36.75774380906777,175.7564579902624</t>
+          <t>-36.75774448637593,175.75645829616235</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-36.758084139371945,175.7556124431011</t>
+          <t>-36.758084458601566,175.75561265078338</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -19187,12 +19187,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-36.75774465570296,175.75645837263735</t>
+          <t>-36.757744740366476,175.75645841087484</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-36.75811326907281,175.75563139411562</t>
+          <t>-36.7581133488802,175.7556314460362</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -19214,12 +19214,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-36.757858528120586,175.75650980214886</t>
+          <t>-36.75785573422519,175.7565085403076</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-36.758161233311824,175.7556625984212</t>
+          <t>-36.75815995639376,175.7556617676904</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -19241,12 +19241,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-36.75789408678749,175.7565258619551</t>
+          <t>-36.757891462219305,175.7565246765879</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-36.758180706311116,175.75567526706925</t>
+          <t>-36.75817942939317,175.755674436338</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -19268,12 +19268,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-36.75768903176742,175.75643325062245</t>
+          <t>-36.75769301095331,175.75643504778208</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-36.75815620544697,175.7556593274189</t>
+          <t>-36.75815804101669,175.75566052159428</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -19295,12 +19295,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-36.75783524565849,175.75649928680807</t>
+          <t>-36.75783253642646,175.75649806320524</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-36.75822707438874,175.75570543301612</t>
+          <t>-36.758225877278434,175.75570465420464</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -19322,12 +19322,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-36.75791753857332,175.7565364537883</t>
+          <t>-36.75792007847784,175.75653760091868</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-36.75820105718973,175.75568850685198</t>
+          <t>-36.75820225430018,175.75568928566295</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -19349,12 +19349,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-36.7577583711928,175.7564645671127</t>
+          <t>-36.75775972580905,175.75646517891283</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-36.758195071637374,175.75568461279747</t>
+          <t>-36.758195789903674,175.75568508008396</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -19376,12 +19376,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-36.75784345801798,175.75650299585476</t>
+          <t>-36.757840833449514,175.75650181048923</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-36.758088528779155,175.75561529873247</t>
+          <t>-36.758087251860715,175.75561446800333</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -19403,12 +19403,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-36.75783863219852,175.75650081631176</t>
+          <t>-36.757837192919006,175.7565001662727</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-36.758210793687866,175.75569484118196</t>
+          <t>-36.758210155228994,175.755694425816</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -19430,12 +19430,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-36.7578845198131,175.7565215411009</t>
+          <t>-36.7578864670734,175.75652242056674</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-36.75827248476883,175.75573497595073</t>
+          <t>-36.75827344245688,175.7557355990007</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -19457,12 +19457,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-36.757788003422405,175.75647795024645</t>
+          <t>-36.7577855481806,175.75647684135782</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-36.758125319989055,175.75563923412872</t>
+          <t>-36.7581241228782,175.75563845531934</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -19484,12 +19484,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-36.75775236008311,175.75646185224974</t>
+          <t>-36.75775092080332,175.7564612022122</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-36.75814503241358,175.75565205852644</t>
+          <t>-36.75814439395452,175.75565164316126</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-36.757866232498664,175.7565132817722</t>
+          <t>-36.757865724517686,175.75651305234646</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
@@ -19534,12 +19534,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-36.75772365914976,175.75644888974136</t>
+          <t>-36.75772399780386,175.75644904269123</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-36.758118296938605,175.75563466511414</t>
+          <t>-36.75811845655339,175.75563476895536</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -19561,7 +19561,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-36.75775642393193,175.75646368764998</t>
+          <t>-36.757760318453684,175.75646544657542</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
@@ -19584,12 +19584,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-36.75776548292809,175.7564677790638</t>
+          <t>-36.75776759951596,175.75646873500176</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-36.758167777516675,175.75566685591693</t>
+          <t>-36.75816873520518,175.75566747896514</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -19611,12 +19611,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-36.75751327024286,175.75635386989748</t>
+          <t>-36.75751648745831,175.75635532291304</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-36.757956048451106,175.75552911073433</t>
+          <t>-36.7579576446001,175.75553014914212</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -19638,12 +19638,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-36.757897981307956,175.75652762088723</t>
+          <t>-36.75789544140329,175.75652647375756</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-36.75820712254927,175.75569245282784</t>
+          <t>-36.758205925438865,175.75569167401676</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -19665,12 +19665,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-36.7578826572163,175.7565206998728</t>
+          <t>-36.75788418115915,175.75652138815036</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-36.75825907713559,175.75572625325273</t>
+          <t>-36.75825979540169,175.75572672054005</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -19692,12 +19692,12 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-36.75777225600921,175.75647083806544</t>
+          <t>-36.7577720866822,175.75647076159038</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-36.75818892647015,175.7556806149022</t>
+          <t>-36.758188846662776,175.75568056298147</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -19719,12 +19719,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-36.75787690009885,175.75651809971345</t>
+          <t>-36.757878085387745,175.75651863504035</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-36.7582645838422,175.75572983578903</t>
+          <t>-36.7582651424936,175.75573019923476</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -19746,7 +19746,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-36.75786648648915,175.75651339648508</t>
+          <t>-36.75786487788275,175.75651266997025</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
@@ -19765,12 +19765,12 @@
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-36.75794141367524,175.75654723681689</t>
+          <t>-36.75794293761788,175.75654792509556</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-36.758254687731686,175.75572339760825</t>
+          <t>-36.75825540599779,175.75572386489554</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -19792,12 +19792,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-36.7578580201396,175.75650957272316</t>
+          <t>-36.7578553109077,175.75650834911954</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-36.75820632447566,175.75569193362045</t>
+          <t>-36.75820512736524,175.7556911548094</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -19819,12 +19819,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-36.75771654741377,175.75644567779395</t>
+          <t>-36.75771976462769,175.7564471308177</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>-36.758200897574994,175.7556884030105</t>
+          <t>-36.75820241391491,175.7556893895044</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -19846,12 +19846,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-36.75789408678749,175.7565258619551</t>
+          <t>-36.757896880682615,175.7565271237977</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-36.758285493364625,175.7557434390476</t>
+          <t>-36.758286850089284,175.75574432170205</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -19873,12 +19873,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-36.75784608258647,175.7565041812204</t>
+          <t>-36.75784709854844,175.75650464007163</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-36.758266658833065,175.7557311857304</t>
+          <t>-36.7582671376771,175.7557314972553</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-36.757862930622366,175.75651179050496</t>
+          <t>-36.75786377725731,175.75651217288117</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-36.75827072900739,175.75573383369246</t>
+          <t>-36.758271128044086,175.7557340932966</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -19927,12 +19927,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-36.75787698476234,175.75651813795108</t>
+          <t>-36.75787427553057,175.75651691434683</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-36.758253889658235,175.7557228784002</t>
+          <t>-36.75825261274071,175.75572204766735</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -19954,12 +19954,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-36.75786547052721,175.7565129376336</t>
+          <t>-36.75786284595886,175.75651175226733</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-36.75820576582413,175.7556915701753</t>
+          <t>-36.75820448890633,175.7556907394435</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -19981,12 +19981,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-36.75796224089072,175.75655664329446</t>
+          <t>-36.75796478079498,175.75655779042623</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-36.758269771319306,175.75573321064255</t>
+          <t>-36.75827096842941,175.75573398945497</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -20008,12 +20008,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-36.757942852954386,175.75654788685787</t>
+          <t>-36.75794429223353,175.75654853689886</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-36.758271447273444,175.75573430097995</t>
+          <t>-36.758272085732145,175.75573471634658</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -20035,12 +20035,12 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-36.75794784809964,175.75655014288256</t>
+          <t>-36.757946239493556,175.7565494163661</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>-36.75827615590637,175.75573736430906</t>
+          <t>-36.758275357833,175.7557368451007</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -20062,12 +20062,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-36.7578165350244,175.75649083630276</t>
+          <t>-36.75782026021859,175.75649251875595</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-36.758190203388025,175.7556814456336</t>
+          <t>-36.758191959150096,175.7556825878894</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -20089,12 +20089,12 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-36.75790687097414,175.75653163584167</t>
+          <t>-36.75790424640605,175.7565304504741</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-36.7582951500518,175.75574972147115</t>
+          <t>-36.75829387313453,175.75574889073735</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -20112,7 +20112,7 @@
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-36.757704186539016,175.756440095125</t>
+          <t>-36.757706557117764,175.75644116577368</t>
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
@@ -20131,12 +20131,12 @@
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-36.75784151075751,175.75650211639004</t>
+          <t>-36.757840579459014,175.75650169577645</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-36.758231942637316,175.75570860018314</t>
+          <t>-36.75823154360055,175.75570834057928</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -20158,12 +20158,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-36.7578931554891,175.75652544134093</t>
+          <t>-36.757895102749345,175.75652632080693</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-36.758261950199916,175.75572812240205</t>
+          <t>-36.75826290788804,175.75572874545185</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -20185,12 +20185,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-36.757836684938006,175.75649993684712</t>
+          <t>-36.757838039554,175.75650054864863</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-36.758205207172594,175.75569120673012</t>
+          <t>-36.758205925438865,175.75569167401676</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -20212,7 +20212,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-36.75781213252215,175.75648884794919</t>
+          <t>-36.75781221718565,175.75648888618676</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -20239,12 +20239,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-36.757882487889326,175.7565206233975</t>
+          <t>-36.75788087928298,175.75651989688237</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-36.758219652304675,175.75570060438525</t>
+          <t>-36.758218854231096,175.7557000851777</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -20266,12 +20266,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-36.75787495283851,175.75651722024787</t>
+          <t>-36.75787757740679,175.75651840561451</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-36.75816594194705,175.7556656617412</t>
+          <t>-36.758167218865054,175.75566649247216</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -20293,12 +20293,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-36.757929306797486,175.75654176882634</t>
+          <t>-36.75793066141319,175.75654238062938</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-36.75824926083218,175.7557198669937</t>
+          <t>-36.758249979098295,175.7557203342809</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -20320,12 +20320,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-36.7578413414305,175.75650203991484</t>
+          <t>-36.757842103402005,175.7565023840532</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-36.75820289275908,175.7556897010288</t>
+          <t>-36.75820321198854,175.75568990871173</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -20347,12 +20347,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-36.757928375499176,175.75654134821175</t>
+          <t>-36.75793167737496,175.75654283948168</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-36.7582803856952,175.75574011611351</t>
+          <t>-36.758281902034575,175.7557411026095</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -20374,12 +20374,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-36.75788011731155,175.7565195527436</t>
+          <t>-36.75787723875282,175.756518252664</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-36.75837503717543,175.7558016943103</t>
+          <t>-36.7583736804513,175.75580081165376</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -20401,12 +20401,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-36.75787376754961,175.75651668492102</t>
+          <t>-36.7578700423559,175.75651500246533</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-36.75824766468525,175.75571882857778</t>
+          <t>-36.758245908923605,175.7557176863203</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -20428,12 +20428,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-36.75785649619665,175.7565088844461</t>
+          <t>-36.75785564956169,175.75650850206998</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>-36.75822563785636,175.75570449844236</t>
+          <t>-36.7582252388196,175.75570423883852</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -20455,12 +20455,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-36.75786953437493,175.75651477303958</t>
+          <t>-36.75787055033686,175.75651523189111</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>-36.758188766855405,175.75568051106075</t>
+          <t>-36.758189245699626,175.75568082258502</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -20482,12 +20482,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-36.757873513559126,175.75651657020813</t>
+          <t>-36.757870973654335,175.75651542307924</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-36.75830616346314,175.7557568865512</t>
+          <t>-36.758304966353236,175.75575610773805</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -20509,12 +20509,12 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-36.757911188811924,175.75653358596276</t>
+          <t>-36.75791254342769,175.75653419776552</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>-36.75817440152873,175.7556711653341</t>
+          <t>-36.75817503998772,175.75567158069967</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
